--- a/financial_files/excel/DAL.xlsx
+++ b/financial_files/excel/DAL.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O116" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O116" headerRowCount="1">
   <autoFilter ref="A1:O116"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/DAL.xlsx
+++ b/financial_files/excel/DAL.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U112" headerRowCount="1">
+  <autoFilter ref="A1:U112"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2000"/>
+    <tableColumn id="3" name="2001"/>
+    <tableColumn id="4" name="2002"/>
+    <tableColumn id="5" name="2003"/>
+    <tableColumn id="6" name="2004"/>
+    <tableColumn id="7" name="2005"/>
+    <tableColumn id="8" name="2006"/>
+    <tableColumn id="9" name="2007"/>
+    <tableColumn id="10" name="2008"/>
+    <tableColumn id="11" name="2009"/>
+    <tableColumn id="12" name="2010"/>
+    <tableColumn id="13" name="2011"/>
+    <tableColumn id="14" name="2012"/>
+    <tableColumn id="15" name="2013"/>
+    <tableColumn id="16" name="2014"/>
+    <tableColumn id="17" name="2015"/>
+    <tableColumn id="18" name="2016"/>
+    <tableColumn id="19" name="2017"/>
+    <tableColumn id="20" name="2018"/>
+    <tableColumn id="21" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B54" headerRowCount="1">
+  <autoFilter ref="A1:B54"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6883,4 +6926,8152 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14883000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13879000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13866000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14308000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15235000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16480000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17532000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19154000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22697000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28063000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31755000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>35115000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>36670000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37773000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40362000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>40704000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>39450000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>41138000000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>44438000000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>47007000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cogs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4090000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9184000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13815000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15048000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25933000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29588000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30861000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30848000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33943000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>29197000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>29082000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31736000000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>35510000000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>36625000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gross_profit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10793000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13879000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13866000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14308000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15235000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16480000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17532000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9970000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8882000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13015000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5822000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5527000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5809000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6925000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6419000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>11507000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10368000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>9402000000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8928000000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10382000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sga</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9076000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8863000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8776000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2580000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7104000000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6164000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5122000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6421000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9838000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1509000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1682000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1590000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1603000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1700000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1672000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1751000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1827000000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1941000000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1993000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>rnd</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>total_opex</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-913000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15481000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15175000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15093000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18543000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18481000000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17474000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6932000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7687000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11374000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3155000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3310000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3182000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3123000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3497000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3705000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3372000000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3436000000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3664000000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3764000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11706000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1602000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1309000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-785000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-3308000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-2001000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>58000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3038000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1195000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1641000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2667000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2217000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2627000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3802000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2922000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7802000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6996000000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5966000000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5264000000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6618000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>net_interest_income_normal</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-524000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-593000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-881000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1185000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1094000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1005000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-852000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-650000000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-481000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-388000000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-396000000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-311000000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-301000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>other_nonoperating_income</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-9613000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-262000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-693000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-404000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-684000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1858000000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-7026000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-695000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-9643000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-2341000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-874000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-354000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-597000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-423000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1200000000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-164000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-255000000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-70000000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>198000000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-119000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2093000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1864000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2002000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1189000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3992000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3859000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-6968000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1819000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-9041000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1581000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>608000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>769000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1025000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2527000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1072000000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7157000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6353000000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5500000000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5151000000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6198000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-831000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>648000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>730000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>416000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1206000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>765000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-207000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>119000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>344000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-15000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>85000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-16000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8013000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-413000000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-2631000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-2158000000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-2295000000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-1216000000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-1431000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>income_allocated_to_minority_interest</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1208000000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1216000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1272000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-773000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-5198000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-3818000000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-6203000000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1612000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-8922000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1237000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>593000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>854000000</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1009000000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10540000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>659000000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4526000000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4195000000</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3205000000</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3935000000</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4767000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>eps_basic</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-10.44</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-41.07</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-23.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-31.58</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-19.08</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U15" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-10.44</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-41.07</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-23.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-31.58</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-19.08</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O16" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>shares_basic</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>138000000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>123123000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>123276000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>123438000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>127027000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>161516000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>196485000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>325300000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>468000000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>827000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>834000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>838000000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>845000000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>849000000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>836000000</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>797000000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>751000000</v>
+      </c>
+      <c r="S17" t="n">
+        <v>720000000</v>
+      </c>
+      <c r="T17" t="n">
+        <v>691000000</v>
+      </c>
+      <c r="U17" t="n">
+        <v>651000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>138000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>123123000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123276000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>123438000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>127027000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>161516000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>196485000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>341300000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>468000000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>827000000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>843000000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>844000000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>850000000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>858000000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>845000000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>804000000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>755000000</v>
+      </c>
+      <c r="S18" t="n">
+        <v>723000000</v>
+      </c>
+      <c r="T18" t="n">
+        <v>694000000</v>
+      </c>
+      <c r="U18" t="n">
+        <v>653000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cash_and_equiv</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1252000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2210000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2034000000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2648000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4255000000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4607000000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2892000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2657000000</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2416000000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2844000000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2088000000</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1972000000</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2762000000</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1814000000</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1565000000</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2882000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>st_investments</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>493000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>614000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>138000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>212000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>71000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>718000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>958000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>958000000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>959000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1217000000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1465000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>487000000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>825000000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>receivables</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>739000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>368000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>915000000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1066000000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2652000000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1353000000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1456000000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1563000000</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1693000000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1612000000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3222000000</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2020000000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2064000000</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2377000000</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2314000000</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2854000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>181000000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>181000000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>262000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>388000000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>327000000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>318000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>535000000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1023000000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1063000000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>852000000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>697000000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>891000000</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1329000000</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1055000000</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1251000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>other_current_assets</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>968000000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>808000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1641000000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1126000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1467000000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1633000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1923000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2016000000</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2182000000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3173000000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1779000000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2902000000</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1247000000</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1459000000</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1406000000</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1262000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>total_current_assets</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3452000000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3567000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5385000000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5240000000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8974000000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7991000000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7307000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7729000000</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8272000000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9651000000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9158000000</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>9056000000</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7451000000</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7804000000</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6340000000</v>
+      </c>
+      <c r="U24" t="n">
+        <v>8249000000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>equity_and_other_investments</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>276000000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ppe_net</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13385000000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16097000000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12973000000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11701000000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20627000000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20433000000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>20307000000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>20223000000</v>
+      </c>
+      <c r="N26" t="n">
+        <v>20713000000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>21854000000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>21929000000</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>23039000000</v>
+      </c>
+      <c r="R26" t="n">
+        <v>24375000000</v>
+      </c>
+      <c r="S26" t="n">
+        <v>26563000000</v>
+      </c>
+      <c r="T26" t="n">
+        <v>34329000000</v>
+      </c>
+      <c r="U26" t="n">
+        <v>36937000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>goodwill</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2092000000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>227000000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12104000000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9731000000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>9787000000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>9794000000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9794000000</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9794000000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>9794000000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9794000000</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>9794000000</v>
+      </c>
+      <c r="R27" t="n">
+        <v>9794000000</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9794000000</v>
+      </c>
+      <c r="T27" t="n">
+        <v>9781000000</v>
+      </c>
+      <c r="U27" t="n">
+        <v>9781000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>intangible_assets</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2287000000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>94000000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>89000000</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2806000000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4944000000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4829000000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4749000000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4751000000</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4679000000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4658000000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4603000000</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4861000000</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4844000000</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4847000000</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4830000000</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5163000000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>other_lt_assets</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1442000000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1479000000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24720000000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>25939000000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>21801000000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>20039000000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>948000000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>572000000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>808000000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>749000000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1031000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1002000000</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1092000000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6295000000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>8521000000</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>6384000000</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4797000000</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4663000000</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4986000000</v>
+      </c>
+      <c r="U29" t="n">
+        <v>4402000000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>20566000000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23605000000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24720000000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25939000000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>21801000000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20039000000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19622000000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>32423000000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>45084000000</v>
+      </c>
+      <c r="K30" t="n">
+        <v>43789000000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>43188000000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>43499000000</v>
+      </c>
+      <c r="N30" t="n">
+        <v>44550000000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>52252000000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>54005000000</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>53134000000</v>
+      </c>
+      <c r="R30" t="n">
+        <v>51261000000</v>
+      </c>
+      <c r="S30" t="n">
+        <v>53671000000</v>
+      </c>
+      <c r="T30" t="n">
+        <v>60266000000</v>
+      </c>
+      <c r="U30" t="n">
+        <v>64532000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>accounts_payable</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2318000000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1617000000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>936000000</v>
+      </c>
+      <c r="I31" t="n">
+        <v>839000000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1604000000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1249000000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1713000000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1600000000</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2293000000</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2300000000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2622000000</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2743000000</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2572000000</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3634000000</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2976000000</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3266000000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>tax_payable</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1049000000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>323000000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>565000000</v>
+      </c>
+      <c r="K32" t="n">
+        <v>525000000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>579000000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>594000000</v>
+      </c>
+      <c r="N32" t="n">
+        <v>585000000</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>current_accrued_liabilities</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1121000000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>670000000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1097000000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1507000000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>765000000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>654000000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2916000000</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2808000000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4176000000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4393000000</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4501000000</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4831000000</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4890000000</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4404000000</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4779000000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>569000000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1025000000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1503000000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3291000000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5792000000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1533000000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2073000000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1944000000</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1627000000</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1547000000</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1184000000</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1563000000</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1131000000</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2242000000</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1518000000</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2287000000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>current_deferred_revenue</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1055000000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1624000000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4688000000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4996000000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5329000000</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5502000000</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5983000000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5876000000</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>6138000000</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6274000000</v>
+      </c>
+      <c r="S35" t="n">
+        <v>7126000000</v>
+      </c>
+      <c r="T35" t="n">
+        <v>7650000000</v>
+      </c>
+      <c r="U35" t="n">
+        <v>8335000000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>current_deferred_tax_liability</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>other_current_liabilities</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3053000000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1591000000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2160000000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1037000000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1370000000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>318000000</v>
+      </c>
+      <c r="N37" t="n">
+        <v>455000000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>146000000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2772000000</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2581000000</v>
+      </c>
+      <c r="R37" t="n">
+        <v>431000000</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1067000000</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2030000000</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1537000000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>total_current_liabilities</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5940000000</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6403000000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5769000000</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6605000000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11092000000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9797000000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11385000000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>12701000000</v>
+      </c>
+      <c r="N38" t="n">
+        <v>13270000000</v>
+      </c>
+      <c r="O38" t="n">
+        <v>14152000000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>16847000000</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>17526000000</v>
+      </c>
+      <c r="R38" t="n">
+        <v>15239000000</v>
+      </c>
+      <c r="S38" t="n">
+        <v>18959000000</v>
+      </c>
+      <c r="T38" t="n">
+        <v>18578000000</v>
+      </c>
+      <c r="U38" t="n">
+        <v>20204000000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4525000000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8279000000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10174000000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11538000000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13005000000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6557000000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6509000000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7986000000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>15411000000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15665000000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>13179000000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>11847000000</v>
+      </c>
+      <c r="N39" t="n">
+        <v>11082000000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9795000000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8477000000</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6766000000</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6201000000</v>
+      </c>
+      <c r="S39" t="n">
+        <v>6592000000</v>
+      </c>
+      <c r="T39" t="n">
+        <v>8253000000</v>
+      </c>
+      <c r="U39" t="n">
+        <v>8873000000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>noncurrent_capital_leases</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>68000000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5801000000</v>
+      </c>
+      <c r="U40" t="n">
+        <v>5294000000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>pension_liabilities</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2008000000</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3867000000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10895000000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>11745000000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11493000000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>14200000000</v>
+      </c>
+      <c r="N41" t="n">
+        <v>16005000000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>12392000000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>15138000000</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>13855000000</v>
+      </c>
+      <c r="R41" t="n">
+        <v>13378000000</v>
+      </c>
+      <c r="S41" t="n">
+        <v>9810000000</v>
+      </c>
+      <c r="T41" t="n">
+        <v>9163000000</v>
+      </c>
+      <c r="U41" t="n">
+        <v>8452000000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>noncurrent_deferred_revenue</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>869000000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>465000000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>752000000</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3131000000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5470000000</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5115000000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4701000000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4728000000</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4675000000</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2559000000</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2602000000</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2246000000</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2278000000</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3559000000</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3815000000</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4965000000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>other_lt_liabilities</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2137000000</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4621000000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13653000000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>15060000000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>14592000000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>23377000000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20185000000</v>
+      </c>
+      <c r="I43" t="n">
+        <v>721000000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1342000000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1222000000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1533000000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1419000000</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1649000000</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1711000000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2128000000</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1891000000</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1878000000</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2221000000</v>
+      </c>
+      <c r="T43" t="n">
+        <v>969000000</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1386000000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>total_liabilities</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15479000000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>19836000000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23827000000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26598000000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>27597000000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>29934000000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>33215000000</v>
+      </c>
+      <c r="I44" t="n">
+        <v>22310000000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>44210000000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>43544000000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>42291000000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>44895000000</v>
+      </c>
+      <c r="N44" t="n">
+        <v>46681000000</v>
+      </c>
+      <c r="O44" t="n">
+        <v>40609000000</v>
+      </c>
+      <c r="P44" t="n">
+        <v>45192000000</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>42284000000</v>
+      </c>
+      <c r="R44" t="n">
+        <v>38974000000</v>
+      </c>
+      <c r="S44" t="n">
+        <v>41141000000</v>
+      </c>
+      <c r="T44" t="n">
+        <v>46579000000</v>
+      </c>
+      <c r="U44" t="n">
+        <v>49174000000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>retained_earnings</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4043000000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2930000000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-14414000000</v>
+      </c>
+      <c r="I45" t="n">
+        <v>314000000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-8608000000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-9845000000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-9252000000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-8398000000</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-7389000000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3049000000</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3456000000</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5562000000</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7903000000</v>
+      </c>
+      <c r="S45" t="n">
+        <v>8256000000</v>
+      </c>
+      <c r="T45" t="n">
+        <v>10039000000</v>
+      </c>
+      <c r="U45" t="n">
+        <v>12454000000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>apic</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3245000000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3267000000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1561000000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9512000000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>13714000000</v>
+      </c>
+      <c r="K46" t="n">
+        <v>13827000000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>13926000000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>13999000000</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14069000000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>13982000000</v>
+      </c>
+      <c r="P46" t="n">
+        <v>12981000000</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>12936000000</v>
+      </c>
+      <c r="R46" t="n">
+        <v>12294000000</v>
+      </c>
+      <c r="S46" t="n">
+        <v>12053000000</v>
+      </c>
+      <c r="T46" t="n">
+        <v>11671000000</v>
+      </c>
+      <c r="U46" t="n">
+        <v>11129000000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>common_stock</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>271000000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>271000000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>aoci</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-518000000</v>
+      </c>
+      <c r="I48" t="n">
+        <v>435000000</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-4080000000</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-3563000000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-3578000000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-6766000000</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-8577000000</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-5130000000</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-7311000000</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-7275000000</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-7636000000</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-7621000000</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-7825000000</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-7989000000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>minority_interest_liability</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>treasury_stock</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-2726000000</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2724000000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-224000000</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-148000000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-152000000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-174000000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-199000000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-231000000</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-234000000</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-258000000</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-313000000</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-373000000</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-274000000</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-158000000</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-198000000</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-236000000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5087000000</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3769000000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>893000000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-659000000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-5796000000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-9895000000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-13593000000</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10113000000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>874000000</v>
+      </c>
+      <c r="K51" t="n">
+        <v>245000000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>897000000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-1396000000</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-2131000000</v>
+      </c>
+      <c r="O51" t="n">
+        <v>11643000000</v>
+      </c>
+      <c r="P51" t="n">
+        <v>8813000000</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>10850000000</v>
+      </c>
+      <c r="R51" t="n">
+        <v>12287000000</v>
+      </c>
+      <c r="S51" t="n">
+        <v>12530000000</v>
+      </c>
+      <c r="T51" t="n">
+        <v>13687000000</v>
+      </c>
+      <c r="U51" t="n">
+        <v>15358000000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>net_income_continuing</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1262000000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1216000000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1272000000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-773000000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-5198000000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-3818000000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-6203000000</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1612000000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-8922000000</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1237000000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>593000000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>854000000</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1009000000</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10540000000</v>
+      </c>
+      <c r="P52" t="n">
+        <v>659000000</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4526000000</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4195000000</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3205000000</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3935000000</v>
+      </c>
+      <c r="U52" t="n">
+        <v>4767000000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>cfo_da</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-1146000000</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1283000000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1181000000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1230000000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1244000000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1273000000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1276000000</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1164000000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1266000000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1536000000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1511000000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1523000000</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1565000000</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1658000000</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1771000000</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1835000000</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1886000000</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2222000000</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2329000000</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2581000000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>cfo_change_in_working_capital</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-28000000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>107000000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-278000000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>227000000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-89000000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>477000000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-369000000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>159000000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-1339000000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>856000000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>173000000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>247000000</v>
+      </c>
+      <c r="N54" t="n">
+        <v>262000000</v>
+      </c>
+      <c r="O54" t="n">
+        <v>794000000</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-768000000</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1242000000</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-30000000</v>
+      </c>
+      <c r="S54" t="n">
+        <v>705000000</v>
+      </c>
+      <c r="T54" t="n">
+        <v>423000000</v>
+      </c>
+      <c r="U54" t="n">
+        <v>219000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>cfo_deferred_tax</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>250000000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-648000000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-411000000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-416000000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1206000000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-41000000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-765000000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>207000000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-119000000</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-329000000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-2000000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-7991000000</v>
+      </c>
+      <c r="P55" t="n">
+        <v>414000000</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2581000000</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2118000000</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2242000000</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1364000000</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1473000000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>cfo_stock_comp</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>54000000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>89000000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>72000000</v>
+      </c>
+      <c r="N56" t="n">
+        <v>54000000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>cfo_other_noncash_items</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1933000000</v>
+      </c>
+      <c r="C57" t="n">
+        <v>710000000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1065000000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>185000000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1714000000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1802000000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7054000000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-1783000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>7353000000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>445000000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>457000000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>140000000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-431000000</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-497000000</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2871000000</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-2257000000</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-954000000</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-3351000000</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-1037000000</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-615000000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2378000000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>236000000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>285000000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>453000000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-1123000000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-307000000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>993000000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1359000000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1707000000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1379000000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2832000000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2834000000</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2476000000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4504000000</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4947000000</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>7927000000</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7215000000</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5023000000</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7014000000</v>
+      </c>
+      <c r="U58" t="n">
+        <v>8425000000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-3033000000</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2727000000</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-1186000000</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-729000000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-526000000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-389000000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-373000000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-931000000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-1368000000</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-1102000000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-1306000000</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-1254000000</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-1968000000</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-2521000000</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-2249000000</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-2945000000</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-3165000000</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-3891000000</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-5168000000</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-4936000000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>cfi_acquisitions_net</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-1584000000</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>417000000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2441000000</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-407000000</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-500000000</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-1245000000</v>
+      </c>
+      <c r="T60" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="U60" t="n">
+        <v>109000000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>cfi_investment_net</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>930000000</v>
+      </c>
+      <c r="C61" t="n">
+        <v>39000000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-47000000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>456000000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>350000000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>302000000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>517000000</v>
+      </c>
+      <c r="K61" t="n">
+        <v>157000000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-666000000</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-234000000</v>
+      </c>
+      <c r="N61" t="n">
+        <v>61000000</v>
+      </c>
+      <c r="O61" t="n">
+        <v>158000000</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-262000000</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-259000000</v>
+      </c>
+      <c r="R61" t="n">
+        <v>979000000</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-341000000</v>
+      </c>
+      <c r="T61" t="n">
+        <v>621000000</v>
+      </c>
+      <c r="U61" t="n">
+        <v>206000000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>cfi_other</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-215000000</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-8000000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>124000000</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-44000000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-6000000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-63000000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-54000000</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-10000000</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-55000000</v>
+      </c>
+      <c r="O62" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="P62" t="n">
+        <v>48000000</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-251000000</v>
+      </c>
+      <c r="R62" t="n">
+        <v>31000000</v>
+      </c>
+      <c r="S62" t="n">
+        <v>211000000</v>
+      </c>
+      <c r="T62" t="n">
+        <v>126000000</v>
+      </c>
+      <c r="U62" t="n">
+        <v>58000000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>cf_cfi</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-3902000000</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-2696000000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-1109000000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-260000000</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-220000000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-361000000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-625000000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1598000000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1008000000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-2026000000</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-1498000000</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-1962000000</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-2756000000</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-2463000000</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-3955000000</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-2155000000</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-5266000000</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-4393000000</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-4563000000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>cff_common_stock_net</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-762000000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-42000000</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>192000000</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-250000000</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-1100000000</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-2200000000</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-2601000000</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-1677000000</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-1575000000</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-2027000000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>cff_debt_net</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2456000000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3361000000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>676000000</v>
+      </c>
+      <c r="E65" t="n">
+        <v>972000000</v>
+      </c>
+      <c r="F65" t="n">
+        <v>671000000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>930000000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-476000000</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-51000000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>536000000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>75000000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-3722000000</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-4172000000</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-2864000000</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-1461000000</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-2928000000</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-2558000000</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-1259000000</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-1258000000</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-3052000000</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-1570000000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>cff_dividend_paid</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-42000000</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-40000000</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-39000000</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-19000000</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-102000000</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-251000000</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-359000000</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-509000000</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-731000000</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-909000000</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-980000000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>cff_other</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-17000000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-12000000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-405000000</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-35000000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-100000000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-130000000</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-69000000</v>
+      </c>
+      <c r="J67" t="n">
+        <v>988000000</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-94000000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1201000000</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2601000000</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2109000000</v>
+      </c>
+      <c r="O67" t="n">
+        <v>493000000</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1039000000</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1029000000</v>
+      </c>
+      <c r="R67" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2936000000</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3810000000</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1697000000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>cf_cff</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1652000000</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3306000000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>583000000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>548000000</v>
+      </c>
+      <c r="F68" t="n">
+        <v>636000000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>830000000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-606000000</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-120000000</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1716000000</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-19000000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-2521000000</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-1571000000</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-755000000</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-1320000000</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-3240000000</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-4088000000</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-4260000000</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-730000000</v>
+      </c>
+      <c r="T68" t="n">
+        <v>-1726000000</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-2880000000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>roa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.055</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.0526</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.0305</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.2177</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.1825</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.3128</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0619</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.2302</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.0278</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.2177</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0844</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.07630000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.2746</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.5456</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-6.6068</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.6105</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.5281</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.9264</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-1.6241</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-2.2109</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.0385</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-3.4228</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.5721000000000001</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2.2161</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.4603</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.2582</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.3001</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.3282</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.1224</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.1156</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.0704</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.5747</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1.9726</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.1326</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.2897</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.0806</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0742</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1127</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.7447</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.2694</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2463</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.1665</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.1683</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>roce</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8603</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.0958</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.0609</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.0309</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.1385</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.0956</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.07679999999999999</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.0665</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.07489999999999999</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.2066</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.1882</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.1313</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.1473</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rotce</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9696</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.1106</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.06419999999999999</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.0309</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.1385</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.0956</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.2078</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0608</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0713</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.1181</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.1434</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.1742</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.1189</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.3107</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.2661</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.2068</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.2196</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>gross_margin</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7251</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.5205</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3913</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.4637</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.1833</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.1573</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1584</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.1833</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.2826</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2628</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.2285</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.2009</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.2208</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ebitda_margin</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7095</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.0229</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.0092</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0311</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.1354</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.0441</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.2193</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.1084</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1132</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.1065</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.1143</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.1445</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.1162</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.2367</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2251</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.1708</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.1956</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>operating_margin</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.7865</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.1154</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.0944</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.0548</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.2171</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.1214</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.1586</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0584</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0631</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0716</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.1006</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.0723</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.1916</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.1773</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.1184</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.1407</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>pretax_margin</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.1343</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.1443</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.08309999999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.262</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.2341</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.3974</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0949</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.3983</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.0563</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.0668</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.1758</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.1336</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>net_income_margin</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.0876</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.0917</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.054</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.3411</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.2316</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.3538</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.08409999999999999</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.393</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.0779</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>fcf_margin</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.1794</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.0649</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.0192</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.1082</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.0422</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.1354</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.0524</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.0668</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.1223</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.1026</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.0742</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>assets_to_equity</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4.0428</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.2629</v>
+      </c>
+      <c r="D80" t="n">
+        <v>27.6819</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-39.3611</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-3.7613</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-2.0251</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-1.4435</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="J80" t="n">
+        <v>51.5835</v>
+      </c>
+      <c r="K80" t="n">
+        <v>178.7306</v>
+      </c>
+      <c r="L80" t="n">
+        <v>48.1471</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-31.1597</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-20.9056</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4.4878</v>
+      </c>
+      <c r="P80" t="n">
+        <v>6.1278</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4.8971</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4.1719</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4.2833</v>
+      </c>
+      <c r="T80" t="n">
+        <v>4.4031</v>
+      </c>
+      <c r="U80" t="n">
+        <v>4.2018</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>equity_to_assets</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.2473</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1596</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.0254</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.2658</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.4937</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.6927</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.3119</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.0478</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.2228</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.2042</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.2396</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.2334</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.2271</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.2379</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>debt_to_equity</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.0013</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.4866</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11.393</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-17.5083</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-2.2437</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.6626</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.5894</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="J82" t="n">
+        <v>24.2597</v>
+      </c>
+      <c r="K82" t="n">
+        <v>70.19589999999999</v>
+      </c>
+      <c r="L82" t="n">
+        <v>17.0033</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-9.8789</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-5.9638</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.9741</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.0962</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.7675999999999999</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.5967</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.1377</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.0713</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>debt_to_assets</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.2476</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.4115</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.4448</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.3272</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.3478</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4702</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3927</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.3531</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.2852</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.1788</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.1567</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.1645</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.2549</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.0674</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.08169999999999999</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0638</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0925</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.1849</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.2364</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.1058</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-0.0308</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.08019999999999999</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.0578</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>gross_profit_growth</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.2606</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.2859</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.08169999999999999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0638</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.4313</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.1091</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.4653</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.5526</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.0506</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.1921</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-0.073</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.7926</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-0.0989</v>
+      </c>
+      <c r="S85" t="n">
+        <v>-0.0931</v>
+      </c>
+      <c r="T85" t="n">
+        <v>-0.0504</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.1628</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ebitda_growth</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2.7301</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.0302</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.4765</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-5.6382</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.6472</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.8324</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.1499</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.4143</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2909</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.1048</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.1208</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.3024</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-0.1404</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.0534</v>
+      </c>
+      <c r="R86" t="n">
+        <v>-0.07829999999999999</v>
+      </c>
+      <c r="S86" t="n">
+        <v>-0.0781</v>
+      </c>
+      <c r="T86" t="n">
+        <v>-0.0726</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.2115</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>operating_income_growth</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5.2598</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.1368</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1828</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.4003</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-3.214</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.3951</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.0289</v>
+      </c>
+      <c r="I87" t="n">
+        <v>51.3793</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.6066</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.3732</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.6252</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.1687</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.1849</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.4472</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-0.2314</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R87" t="n">
+        <v>-0.1033</v>
+      </c>
+      <c r="S87" t="n">
+        <v>-0.1472</v>
+      </c>
+      <c r="T87" t="n">
+        <v>-0.1176</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.2572</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>pretax_income_growth</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1462</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.8905</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-2.3574</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.8056</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.261</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-5.9703</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.8250999999999999</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.3845</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.2648</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.4653</v>
+      </c>
+      <c r="P88" t="n">
+        <v>-0.5757</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5.6763</v>
+      </c>
+      <c r="R88" t="n">
+        <v>-0.1123</v>
+      </c>
+      <c r="S88" t="n">
+        <v>-0.1342</v>
+      </c>
+      <c r="T88" t="n">
+        <v>-0.0634</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.2032</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>net_income_growth</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-2.0066</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.3922</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-5.7244</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.2654</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.6246</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.2598</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-6.5347</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.8613</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.4793</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.4401</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.1814</v>
+      </c>
+      <c r="O89" t="n">
+        <v>9.4459</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-0.9374</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5.8679</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-0.0731</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-0.2359</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.2277</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.2114</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2.2257</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.3869</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-5.4171</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.4217</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.3296</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.0668</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-10.0426</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9213</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.4666</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.4428</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.1782</v>
+      </c>
+      <c r="O90" t="n">
+        <v>9.3277</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-0.9365</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>6.2179</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-0.0142</v>
+      </c>
+      <c r="S90" t="n">
+        <v>-0.2018</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.2799</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.2874</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>shares_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.08840000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.1078</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.2715</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.2165</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.3712</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-0.0151</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>-0.0485</v>
+      </c>
+      <c r="R91" t="n">
+        <v>-0.0609</v>
+      </c>
+      <c r="S91" t="n">
+        <v>-0.0423</v>
+      </c>
+      <c r="T91" t="n">
+        <v>-0.0401</v>
+      </c>
+      <c r="U91" t="n">
+        <v>-0.059</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ppe_growth</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1466</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.2026</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.098</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.7628</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.0094</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-0.0061</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.0041</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0242</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.0579</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.0897</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.2923</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.0759</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>total_assets_growth</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.2278</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1477</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0493</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.1595</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.0808</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.0208</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.6523</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.3904</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-0.0287</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.0137</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.1728</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>-0.0161</v>
+      </c>
+      <c r="R93" t="n">
+        <v>-0.0352</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.1228</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.0707</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1436</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.259</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.763</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.7379</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-7.7951</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.7072000000000001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.3737</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.7439</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.9135</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.7196</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2.6612</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-2.5562</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.5265</v>
+      </c>
+      <c r="O94" t="n">
+        <v>6.4636</v>
+      </c>
+      <c r="P94" t="n">
+        <v>-0.243</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.2311</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.1324</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.09229999999999999</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.1903</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.9006999999999999</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.2076</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-3.479</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.2345</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.3685</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-2.256</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.8078</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.0536</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.1263</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.0983</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="R95" t="n">
+        <v>-0.0898</v>
+      </c>
+      <c r="S95" t="n">
+        <v>-0.3038</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.3963</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.2011</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>capex_growth</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.0759</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.3853</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2784</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.2604</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0411</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-1.4959</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.4693</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.1944</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-0.1851</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.0398</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.5693</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-0.2809</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.1078</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-0.3094</v>
+      </c>
+      <c r="R96" t="n">
+        <v>-0.0747</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-0.2293</v>
+      </c>
+      <c r="T96" t="n">
+        <v>-0.3281</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.0448</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-6.5508</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-2.803</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.6382</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.6936</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-4.9746</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.5779</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.8908</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.3096</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-8.1845</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L97" t="n">
+        <v>4.509</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.6784</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2.9035</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.3605</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.8465</v>
+      </c>
+      <c r="R97" t="n">
+        <v>-0.187</v>
+      </c>
+      <c r="S97" t="n">
+        <v>-0.7204</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.6307</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-655000000</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-2491000000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-901000000</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-276000000</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-1649000000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-696000000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>620000000</v>
+      </c>
+      <c r="I98" t="n">
+        <v>428000000</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-3075000000</v>
+      </c>
+      <c r="K98" t="n">
+        <v>277000000</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1526000000</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1580000000</v>
+      </c>
+      <c r="N98" t="n">
+        <v>508000000</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1983000000</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2698000000</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4982000000</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4050000000</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1132000000</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1846000000</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3489000000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>book_value</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5087000000</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3317000000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>893000000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-659000000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-5796000000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-9895000000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-13593000000</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10113000000</v>
+      </c>
+      <c r="J99" t="n">
+        <v>874000000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>245000000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>897000000</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-1396000000</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-2131000000</v>
+      </c>
+      <c r="O99" t="n">
+        <v>11643000000</v>
+      </c>
+      <c r="P99" t="n">
+        <v>8813000000</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>10850000000</v>
+      </c>
+      <c r="R99" t="n">
+        <v>12287000000</v>
+      </c>
+      <c r="S99" t="n">
+        <v>12530000000</v>
+      </c>
+      <c r="T99" t="n">
+        <v>13687000000</v>
+      </c>
+      <c r="U99" t="n">
+        <v>15358000000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>tangible_book_value</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2800000000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1131000000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>893000000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-659000000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-5796000000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-9895000000</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-13909000000</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-4797000000</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-13801000000</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-14371000000</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-13646000000</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-15941000000</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-16604000000</v>
+      </c>
+      <c r="O100" t="n">
+        <v>-2809000000</v>
+      </c>
+      <c r="P100" t="n">
+        <v>-5584000000</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>-3805000000</v>
+      </c>
+      <c r="R100" t="n">
+        <v>-2351000000</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-2111000000</v>
+      </c>
+      <c r="T100" t="n">
+        <v>-924000000</v>
+      </c>
+      <c r="U100" t="n">
+        <v>414000000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>revenue_per_share</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>107.8478</v>
+      </c>
+      <c r="C101" t="n">
+        <v>112.7246</v>
+      </c>
+      <c r="D101" t="n">
+        <v>112.4793</v>
+      </c>
+      <c r="E101" t="n">
+        <v>115.9124</v>
+      </c>
+      <c r="F101" t="n">
+        <v>119.9351</v>
+      </c>
+      <c r="G101" t="n">
+        <v>102.0332</v>
+      </c>
+      <c r="H101" t="n">
+        <v>89.2281</v>
+      </c>
+      <c r="I101" t="n">
+        <v>56.1207</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48.4978</v>
+      </c>
+      <c r="K101" t="n">
+        <v>33.9334</v>
+      </c>
+      <c r="L101" t="n">
+        <v>37.669</v>
+      </c>
+      <c r="M101" t="n">
+        <v>41.6054</v>
+      </c>
+      <c r="N101" t="n">
+        <v>43.1411</v>
+      </c>
+      <c r="O101" t="n">
+        <v>44.0244</v>
+      </c>
+      <c r="P101" t="n">
+        <v>47.7656</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>50.6268</v>
+      </c>
+      <c r="R101" t="n">
+        <v>52.2516</v>
+      </c>
+      <c r="S101" t="n">
+        <v>56.899</v>
+      </c>
+      <c r="T101" t="n">
+        <v>64.0317</v>
+      </c>
+      <c r="U101" t="n">
+        <v>71.9862</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ebitda_per_share</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>76.5217</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-2.5909</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-1.0383</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.605</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-16.2485</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-4.5072</v>
+      </c>
+      <c r="H102" t="n">
+        <v>6.7893</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12.3117</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5.2585</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3.8415</v>
+      </c>
+      <c r="L102" t="n">
+        <v>4.9561</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4.4312</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4.9317</v>
+      </c>
+      <c r="O102" t="n">
+        <v>6.3636</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5.5538</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>11.9863</v>
+      </c>
+      <c r="R102" t="n">
+        <v>11.7642</v>
+      </c>
+      <c r="S102" t="n">
+        <v>11.325</v>
+      </c>
+      <c r="T102" t="n">
+        <v>10.9409</v>
+      </c>
+      <c r="U102" t="n">
+        <v>14.0872</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>operating_income_per_share</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>84.82599999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-13.0113</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-10.6184</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-6.3594</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-26.0417</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-12.3888</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.2951</v>
+      </c>
+      <c r="I103" t="n">
+        <v>8.901199999999999</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.5534</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.9842</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.6267</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3.0905</v>
+      </c>
+      <c r="O103" t="n">
+        <v>4.4312</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3.4579</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>9.703900000000001</v>
+      </c>
+      <c r="R103" t="n">
+        <v>9.2662</v>
+      </c>
+      <c r="S103" t="n">
+        <v>8.2517</v>
+      </c>
+      <c r="T103" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="U103" t="n">
+        <v>10.1347</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>fcf_per_share</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-4.7463</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-20.2318</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-7.3088</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.2359</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-12.9814</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-4.3091</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.1554</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-6.5705</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.3349</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.8102</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="O104" t="n">
+        <v>2.3111</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3.1928</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>6.1965</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5.3642</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1.5656</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.6599</v>
+      </c>
+      <c r="U104" t="n">
+        <v>5.343</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>36.8623</v>
+      </c>
+      <c r="C105" t="n">
+        <v>26.9405</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.2439</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-5.3387</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-45.628</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-61.2632</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-69.1808</v>
+      </c>
+      <c r="I105" t="n">
+        <v>29.6308</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.8675</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.2962</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-1.654</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-2.507</v>
+      </c>
+      <c r="O105" t="n">
+        <v>13.5699</v>
+      </c>
+      <c r="P105" t="n">
+        <v>10.4295</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>13.495</v>
+      </c>
+      <c r="R105" t="n">
+        <v>16.2741</v>
+      </c>
+      <c r="S105" t="n">
+        <v>17.3305</v>
+      </c>
+      <c r="T105" t="n">
+        <v>19.7219</v>
+      </c>
+      <c r="U105" t="n">
+        <v>23.5191</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>tangible_book_per_share</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>20.2898</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9.1859</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.2439</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-5.3387</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-45.628</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-61.2632</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-70.7891</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-14.055</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-29.4893</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-17.3772</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-16.1874</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-18.8874</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-19.5341</v>
+      </c>
+      <c r="O106" t="n">
+        <v>-3.2738</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-6.6082</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-4.7325</v>
+      </c>
+      <c r="R106" t="n">
+        <v>-3.1139</v>
+      </c>
+      <c r="S106" t="n">
+        <v>-2.9197</v>
+      </c>
+      <c r="T106" t="n">
+        <v>-1.3314</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0.6339</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4351245140</v>
+      </c>
+      <c r="J107" t="n">
+        <v>8000650020</v>
+      </c>
+      <c r="K107" t="n">
+        <v>8921407900</v>
+      </c>
+      <c r="L107" t="n">
+        <v>10517522400</v>
+      </c>
+      <c r="M107" t="n">
+        <v>6838040140</v>
+      </c>
+      <c r="N107" t="n">
+        <v>10106141740</v>
+      </c>
+      <c r="O107" t="n">
+        <v>23389139210</v>
+      </c>
+      <c r="P107" t="n">
+        <v>40594441020</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>39476560960</v>
+      </c>
+      <c r="R107" t="n">
+        <v>35945002220</v>
+      </c>
+      <c r="S107" t="n">
+        <v>39603088000</v>
+      </c>
+      <c r="T107" t="n">
+        <v>33929205600</v>
+      </c>
+      <c r="U107" t="n">
+        <v>37589306560</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.6992</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.8967000000000001</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-7.2121</v>
+      </c>
+      <c r="L108" t="n">
+        <v>17.7361</v>
+      </c>
+      <c r="M108" t="n">
+        <v>8.007</v>
+      </c>
+      <c r="N108" t="n">
+        <v>10.0159</v>
+      </c>
+      <c r="O108" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="P108" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>8.722099999999999</v>
+      </c>
+      <c r="R108" t="n">
+        <v>8.5685</v>
+      </c>
+      <c r="S108" t="n">
+        <v>12.3566</v>
+      </c>
+      <c r="T108" t="n">
+        <v>8.622400000000001</v>
+      </c>
+      <c r="U108" t="n">
+        <v>7.8853</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>price_to_book</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.4302</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9.154</v>
+      </c>
+      <c r="K109" t="n">
+        <v>36.4139</v>
+      </c>
+      <c r="L109" t="n">
+        <v>11.7252</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-4.8983</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-4.7424</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2.0088</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4.6062</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3.6383</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.9254</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3.1606</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.4789</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.4475</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>price_to_sales</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.2271</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.3179</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.1947</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.6192</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1.0057</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.9698</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.9111</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.9626</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.7635</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.7996</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>dividends</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.505</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>payout_ratio</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.3846</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.0799</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.1216</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.2291</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.2061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1321588046312202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.203764364540978</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1753673920427165</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1919462255705763</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.20395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2053</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1702666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1683</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5487580062107884</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1766070385660381</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1305972014626822</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1925372301857327</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.1935459441188</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5640320613393088</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.09566206573609071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2874779541446209</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05293810780117059</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03095087471008884</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.06016104571064651</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.05781088257797373</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2883151681271645</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.05276588909028135</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.04848570905283889</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8900325027085589</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1983965893128041</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1123606055197806</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.05303916690793287</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2011690903906473</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8873000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.2224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2621248691063103</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2224</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5900453325492783</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>14.57329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-44.48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-44.48</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-26.2452163917919</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-6.487416100909857</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-3.243708050454928</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Delta Air Lines, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NYQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Airlines</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.delta.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>25866491904</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>8384503</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-115.88572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/financial_files/excel/DAL.xlsx
+++ b/financial_files/excel/DAL.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,20 +11,25 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -39,12 +43,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -58,14 +77,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -164,8 +186,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U112" headerRowCount="1">
-  <autoFilter ref="A1:U112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
   <tableColumns count="21">
     <tableColumn id="1" name="API Parameter"/>
     <tableColumn id="2" name="2000"/>
@@ -194,8 +216,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B54" headerRowCount="1">
-  <autoFilter ref="A1:B54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Rule #1 Metric"/>
     <tableColumn id="2" name="Value"/>
@@ -6934,7 +6956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6943,107 +6965,107 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>API Parameter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>2001</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>2002</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7119,416 +7141,416 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cogs</t>
+          <t>operating_income</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4090000000</v>
+        <v>11706000000</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1602000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1309000000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-785000000</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3308000000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2001000000</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>58000000</v>
       </c>
       <c r="I3" t="n">
-        <v>9184000000</v>
+        <v>3038000000</v>
       </c>
       <c r="J3" t="n">
-        <v>13815000000</v>
+        <v>1195000000</v>
       </c>
       <c r="K3" t="n">
-        <v>15048000000</v>
+        <v>1641000000</v>
       </c>
       <c r="L3" t="n">
-        <v>25933000000</v>
+        <v>2667000000</v>
       </c>
       <c r="M3" t="n">
-        <v>29588000000</v>
+        <v>2217000000</v>
       </c>
       <c r="N3" t="n">
-        <v>30861000000</v>
+        <v>2627000000</v>
       </c>
       <c r="O3" t="n">
-        <v>30848000000</v>
+        <v>3802000000</v>
       </c>
       <c r="P3" t="n">
-        <v>33943000000</v>
+        <v>2922000000</v>
       </c>
       <c r="Q3" t="n">
-        <v>29197000000</v>
+        <v>7802000000</v>
       </c>
       <c r="R3" t="n">
-        <v>29082000000</v>
+        <v>6996000000</v>
       </c>
       <c r="S3" t="n">
-        <v>31736000000</v>
+        <v>5966000000</v>
       </c>
       <c r="T3" t="n">
-        <v>35510000000</v>
+        <v>5264000000</v>
       </c>
       <c r="U3" t="n">
-        <v>36625000000</v>
+        <v>6618000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gross_profit</t>
+          <t>pretax_income</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10793000000</v>
+        <v>2093000000</v>
       </c>
       <c r="C4" t="n">
-        <v>13879000000</v>
+        <v>-1864000000</v>
       </c>
       <c r="D4" t="n">
-        <v>13866000000</v>
+        <v>-2002000000</v>
       </c>
       <c r="E4" t="n">
-        <v>14308000000</v>
+        <v>-1189000000</v>
       </c>
       <c r="F4" t="n">
-        <v>15235000000</v>
+        <v>-3992000000</v>
       </c>
       <c r="G4" t="n">
-        <v>16480000000</v>
+        <v>-3859000000</v>
       </c>
       <c r="H4" t="n">
-        <v>17532000000</v>
+        <v>-6968000000</v>
       </c>
       <c r="I4" t="n">
-        <v>9970000000</v>
+        <v>1819000000</v>
       </c>
       <c r="J4" t="n">
-        <v>8882000000</v>
+        <v>-9041000000</v>
       </c>
       <c r="K4" t="n">
-        <v>13015000000</v>
+        <v>-1581000000</v>
       </c>
       <c r="L4" t="n">
-        <v>5822000000</v>
+        <v>608000000</v>
       </c>
       <c r="M4" t="n">
-        <v>5527000000</v>
+        <v>769000000</v>
       </c>
       <c r="N4" t="n">
-        <v>5809000000</v>
+        <v>1025000000</v>
       </c>
       <c r="O4" t="n">
-        <v>6925000000</v>
+        <v>2527000000</v>
       </c>
       <c r="P4" t="n">
-        <v>6419000000</v>
+        <v>1072000000</v>
       </c>
       <c r="Q4" t="n">
-        <v>11507000000</v>
+        <v>7157000000</v>
       </c>
       <c r="R4" t="n">
-        <v>10368000000</v>
+        <v>6353000000</v>
       </c>
       <c r="S4" t="n">
-        <v>9402000000</v>
+        <v>5500000000</v>
       </c>
       <c r="T4" t="n">
-        <v>8928000000</v>
+        <v>5151000000</v>
       </c>
       <c r="U4" t="n">
-        <v>10382000000</v>
+        <v>6198000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>income_tax</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-831000000</v>
       </c>
       <c r="C5" t="n">
-        <v>9076000000</v>
+        <v>648000000</v>
       </c>
       <c r="D5" t="n">
-        <v>8863000000</v>
+        <v>730000000</v>
       </c>
       <c r="E5" t="n">
-        <v>8776000000</v>
+        <v>416000000</v>
       </c>
       <c r="F5" t="n">
-        <v>2580000000</v>
+        <v>-1206000000</v>
       </c>
       <c r="G5" t="n">
-        <v>7104000000</v>
+        <v>41000000</v>
       </c>
       <c r="H5" t="n">
-        <v>6164000000</v>
+        <v>765000000</v>
       </c>
       <c r="I5" t="n">
-        <v>5122000000</v>
+        <v>-207000000</v>
       </c>
       <c r="J5" t="n">
-        <v>6421000000</v>
+        <v>119000000</v>
       </c>
       <c r="K5" t="n">
-        <v>9838000000</v>
+        <v>344000000</v>
       </c>
       <c r="L5" t="n">
-        <v>1509000000</v>
+        <v>-15000000</v>
       </c>
       <c r="M5" t="n">
-        <v>1682000000</v>
+        <v>85000000</v>
       </c>
       <c r="N5" t="n">
-        <v>1590000000</v>
+        <v>-16000000</v>
       </c>
       <c r="O5" t="n">
-        <v>1603000000</v>
+        <v>8013000000</v>
       </c>
       <c r="P5" t="n">
-        <v>1700000000</v>
+        <v>-413000000</v>
       </c>
       <c r="Q5" t="n">
-        <v>1672000000</v>
+        <v>-2631000000</v>
       </c>
       <c r="R5" t="n">
-        <v>1751000000</v>
+        <v>-2158000000</v>
       </c>
       <c r="S5" t="n">
-        <v>1827000000</v>
+        <v>-2295000000</v>
       </c>
       <c r="T5" t="n">
-        <v>1941000000</v>
+        <v>-1216000000</v>
       </c>
       <c r="U5" t="n">
-        <v>1993000000</v>
+        <v>-1431000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rnd</t>
+          <t>eps_diluted</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-9.99</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-10.44</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-6.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-41.07</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-23.75</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-31.58</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-19.08</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>total_opex</t>
+          <t>shares_diluted</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-913000000</v>
+        <v>138000000</v>
       </c>
       <c r="C7" t="n">
-        <v>15481000000</v>
+        <v>123123000</v>
       </c>
       <c r="D7" t="n">
-        <v>15175000000</v>
+        <v>123276000</v>
       </c>
       <c r="E7" t="n">
-        <v>15093000000</v>
+        <v>123438000</v>
       </c>
       <c r="F7" t="n">
-        <v>18543000000</v>
+        <v>127027000</v>
       </c>
       <c r="G7" t="n">
-        <v>18481000000</v>
+        <v>161516000</v>
       </c>
       <c r="H7" t="n">
-        <v>17474000000</v>
+        <v>196485000</v>
       </c>
       <c r="I7" t="n">
-        <v>6932000000</v>
+        <v>341300000</v>
       </c>
       <c r="J7" t="n">
-        <v>7687000000</v>
+        <v>468000000</v>
       </c>
       <c r="K7" t="n">
-        <v>11374000000</v>
+        <v>827000000</v>
       </c>
       <c r="L7" t="n">
-        <v>3155000000</v>
+        <v>843000000</v>
       </c>
       <c r="M7" t="n">
-        <v>3310000000</v>
+        <v>844000000</v>
       </c>
       <c r="N7" t="n">
-        <v>3182000000</v>
+        <v>850000000</v>
       </c>
       <c r="O7" t="n">
-        <v>3123000000</v>
+        <v>858000000</v>
       </c>
       <c r="P7" t="n">
-        <v>3497000000</v>
+        <v>845000000</v>
       </c>
       <c r="Q7" t="n">
-        <v>3705000000</v>
+        <v>804000000</v>
       </c>
       <c r="R7" t="n">
-        <v>3372000000</v>
+        <v>755000000</v>
       </c>
       <c r="S7" t="n">
-        <v>3436000000</v>
+        <v>723000000</v>
       </c>
       <c r="T7" t="n">
-        <v>3664000000</v>
+        <v>694000000</v>
       </c>
       <c r="U7" t="n">
-        <v>3764000000</v>
+        <v>653000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>operating_income</t>
+          <t>total_assets</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11706000000</v>
+        <v>20566000000</v>
       </c>
       <c r="C8" t="n">
-        <v>-1602000000</v>
+        <v>23605000000</v>
       </c>
       <c r="D8" t="n">
-        <v>-1309000000</v>
+        <v>24720000000</v>
       </c>
       <c r="E8" t="n">
-        <v>-785000000</v>
+        <v>25939000000</v>
       </c>
       <c r="F8" t="n">
-        <v>-3308000000</v>
+        <v>21801000000</v>
       </c>
       <c r="G8" t="n">
-        <v>-2001000000</v>
+        <v>20039000000</v>
       </c>
       <c r="H8" t="n">
-        <v>58000000</v>
+        <v>19622000000</v>
       </c>
       <c r="I8" t="n">
-        <v>3038000000</v>
+        <v>32423000000</v>
       </c>
       <c r="J8" t="n">
-        <v>1195000000</v>
+        <v>45084000000</v>
       </c>
       <c r="K8" t="n">
-        <v>1641000000</v>
+        <v>43789000000</v>
       </c>
       <c r="L8" t="n">
-        <v>2667000000</v>
+        <v>43188000000</v>
       </c>
       <c r="M8" t="n">
-        <v>2217000000</v>
+        <v>43499000000</v>
       </c>
       <c r="N8" t="n">
-        <v>2627000000</v>
+        <v>44550000000</v>
       </c>
       <c r="O8" t="n">
-        <v>3802000000</v>
+        <v>52252000000</v>
       </c>
       <c r="P8" t="n">
-        <v>2922000000</v>
+        <v>54005000000</v>
       </c>
       <c r="Q8" t="n">
-        <v>7802000000</v>
+        <v>53134000000</v>
       </c>
       <c r="R8" t="n">
-        <v>6996000000</v>
+        <v>51261000000</v>
       </c>
       <c r="S8" t="n">
-        <v>5966000000</v>
+        <v>53671000000</v>
       </c>
       <c r="T8" t="n">
-        <v>5264000000</v>
+        <v>60266000000</v>
       </c>
       <c r="U8" t="n">
-        <v>6618000000</v>
+        <v>64532000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>net_interest_income_normal</t>
+          <t>st_debt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>569000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1025000000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7543,863 +7565,863 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1503000000</v>
       </c>
       <c r="I9" t="n">
-        <v>-524000000</v>
+        <v>3291000000</v>
       </c>
       <c r="J9" t="n">
-        <v>-593000000</v>
+        <v>5792000000</v>
       </c>
       <c r="K9" t="n">
-        <v>-881000000</v>
+        <v>1533000000</v>
       </c>
       <c r="L9" t="n">
-        <v>-1185000000</v>
+        <v>2073000000</v>
       </c>
       <c r="M9" t="n">
-        <v>-1094000000</v>
+        <v>1944000000</v>
       </c>
       <c r="N9" t="n">
-        <v>-1005000000</v>
+        <v>1627000000</v>
       </c>
       <c r="O9" t="n">
-        <v>-852000000</v>
+        <v>1547000000</v>
       </c>
       <c r="P9" t="n">
-        <v>-650000000</v>
+        <v>1184000000</v>
       </c>
       <c r="Q9" t="n">
-        <v>-481000000</v>
+        <v>1563000000</v>
       </c>
       <c r="R9" t="n">
-        <v>-388000000</v>
+        <v>1131000000</v>
       </c>
       <c r="S9" t="n">
-        <v>-396000000</v>
+        <v>2242000000</v>
       </c>
       <c r="T9" t="n">
-        <v>-311000000</v>
+        <v>1518000000</v>
       </c>
       <c r="U9" t="n">
-        <v>-301000000</v>
+        <v>2287000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>other_nonoperating_income</t>
+          <t>lt_debt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9613000000</v>
+        <v>4525000000</v>
       </c>
       <c r="C10" t="n">
-        <v>-262000000</v>
+        <v>8279000000</v>
       </c>
       <c r="D10" t="n">
-        <v>-693000000</v>
+        <v>10174000000</v>
       </c>
       <c r="E10" t="n">
-        <v>-404000000</v>
+        <v>11538000000</v>
       </c>
       <c r="F10" t="n">
-        <v>-684000000</v>
+        <v>13005000000</v>
       </c>
       <c r="G10" t="n">
-        <v>-1858000000</v>
+        <v>6557000000</v>
       </c>
       <c r="H10" t="n">
-        <v>-7026000000</v>
+        <v>6509000000</v>
       </c>
       <c r="I10" t="n">
-        <v>-695000000</v>
+        <v>7986000000</v>
       </c>
       <c r="J10" t="n">
-        <v>-9643000000</v>
+        <v>15411000000</v>
       </c>
       <c r="K10" t="n">
-        <v>-2341000000</v>
+        <v>15665000000</v>
       </c>
       <c r="L10" t="n">
-        <v>-874000000</v>
+        <v>13179000000</v>
       </c>
       <c r="M10" t="n">
-        <v>-354000000</v>
+        <v>11847000000</v>
       </c>
       <c r="N10" t="n">
-        <v>-597000000</v>
+        <v>11082000000</v>
       </c>
       <c r="O10" t="n">
-        <v>-423000000</v>
+        <v>9795000000</v>
       </c>
       <c r="P10" t="n">
-        <v>-1200000000</v>
+        <v>8477000000</v>
       </c>
       <c r="Q10" t="n">
-        <v>-164000000</v>
+        <v>6766000000</v>
       </c>
       <c r="R10" t="n">
-        <v>-255000000</v>
+        <v>6201000000</v>
       </c>
       <c r="S10" t="n">
-        <v>-70000000</v>
+        <v>6592000000</v>
       </c>
       <c r="T10" t="n">
-        <v>198000000</v>
+        <v>8253000000</v>
       </c>
       <c r="U10" t="n">
-        <v>-119000000</v>
+        <v>8873000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pretax_income</t>
+          <t>total_equity</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2093000000</v>
+        <v>5087000000</v>
       </c>
       <c r="C11" t="n">
-        <v>-1864000000</v>
+        <v>3769000000</v>
       </c>
       <c r="D11" t="n">
-        <v>-2002000000</v>
+        <v>893000000</v>
       </c>
       <c r="E11" t="n">
-        <v>-1189000000</v>
+        <v>-659000000</v>
       </c>
       <c r="F11" t="n">
-        <v>-3992000000</v>
+        <v>-5796000000</v>
       </c>
       <c r="G11" t="n">
-        <v>-3859000000</v>
+        <v>-9895000000</v>
       </c>
       <c r="H11" t="n">
-        <v>-6968000000</v>
+        <v>-13593000000</v>
       </c>
       <c r="I11" t="n">
-        <v>1819000000</v>
+        <v>10113000000</v>
       </c>
       <c r="J11" t="n">
-        <v>-9041000000</v>
+        <v>874000000</v>
       </c>
       <c r="K11" t="n">
-        <v>-1581000000</v>
+        <v>245000000</v>
       </c>
       <c r="L11" t="n">
-        <v>608000000</v>
+        <v>897000000</v>
       </c>
       <c r="M11" t="n">
-        <v>769000000</v>
+        <v>-1396000000</v>
       </c>
       <c r="N11" t="n">
-        <v>1025000000</v>
+        <v>-2131000000</v>
       </c>
       <c r="O11" t="n">
-        <v>2527000000</v>
+        <v>11643000000</v>
       </c>
       <c r="P11" t="n">
-        <v>1072000000</v>
+        <v>8813000000</v>
       </c>
       <c r="Q11" t="n">
-        <v>7157000000</v>
+        <v>10850000000</v>
       </c>
       <c r="R11" t="n">
-        <v>6353000000</v>
+        <v>12287000000</v>
       </c>
       <c r="S11" t="n">
-        <v>5500000000</v>
+        <v>12530000000</v>
       </c>
       <c r="T11" t="n">
-        <v>5151000000</v>
+        <v>13687000000</v>
       </c>
       <c r="U11" t="n">
-        <v>6198000000</v>
+        <v>15358000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>income_tax</t>
+          <t>cf_cfo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-831000000</v>
+        <v>2378000000</v>
       </c>
       <c r="C12" t="n">
-        <v>648000000</v>
+        <v>236000000</v>
       </c>
       <c r="D12" t="n">
-        <v>730000000</v>
+        <v>285000000</v>
       </c>
       <c r="E12" t="n">
-        <v>416000000</v>
+        <v>453000000</v>
       </c>
       <c r="F12" t="n">
-        <v>-1206000000</v>
+        <v>-1123000000</v>
       </c>
       <c r="G12" t="n">
-        <v>41000000</v>
+        <v>-307000000</v>
       </c>
       <c r="H12" t="n">
-        <v>765000000</v>
+        <v>993000000</v>
       </c>
       <c r="I12" t="n">
-        <v>-207000000</v>
+        <v>1359000000</v>
       </c>
       <c r="J12" t="n">
-        <v>119000000</v>
+        <v>-1707000000</v>
       </c>
       <c r="K12" t="n">
-        <v>344000000</v>
+        <v>1379000000</v>
       </c>
       <c r="L12" t="n">
-        <v>-15000000</v>
+        <v>2832000000</v>
       </c>
       <c r="M12" t="n">
-        <v>85000000</v>
+        <v>2834000000</v>
       </c>
       <c r="N12" t="n">
-        <v>-16000000</v>
+        <v>2476000000</v>
       </c>
       <c r="O12" t="n">
-        <v>8013000000</v>
+        <v>4504000000</v>
       </c>
       <c r="P12" t="n">
-        <v>-413000000</v>
+        <v>4947000000</v>
       </c>
       <c r="Q12" t="n">
-        <v>-2631000000</v>
+        <v>7927000000</v>
       </c>
       <c r="R12" t="n">
-        <v>-2158000000</v>
+        <v>7215000000</v>
       </c>
       <c r="S12" t="n">
-        <v>-2295000000</v>
+        <v>5023000000</v>
       </c>
       <c r="T12" t="n">
-        <v>-1216000000</v>
+        <v>7014000000</v>
       </c>
       <c r="U12" t="n">
-        <v>-1431000000</v>
+        <v>8425000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>income_allocated_to_minority_interest</t>
+          <t>cfi_ppe_net</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-3033000000</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-2727000000</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1186000000</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-729000000</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-526000000</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-389000000</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-373000000</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-931000000</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1368000000</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1102000000</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1306000000</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1254000000</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1968000000</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2521000000</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2249000000</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-2945000000</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-3165000000</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-3891000000</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-5168000000</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-4936000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>net_income</t>
+          <t>roic</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1208000000</v>
+        <v>0.1625</v>
       </c>
       <c r="C14" t="n">
-        <v>-1216000000</v>
+        <v>-0.1224</v>
       </c>
       <c r="D14" t="n">
-        <v>-1272000000</v>
+        <v>-0.1156</v>
       </c>
       <c r="E14" t="n">
-        <v>-773000000</v>
+        <v>-0.0704</v>
       </c>
       <c r="F14" t="n">
-        <v>-5198000000</v>
+        <v>-0.5747</v>
       </c>
       <c r="G14" t="n">
-        <v>-3818000000</v>
+        <v>-1.9726</v>
       </c>
       <c r="H14" t="n">
-        <v>-6203000000</v>
+        <v>1.1326</v>
       </c>
       <c r="I14" t="n">
-        <v>1612000000</v>
+        <v>0.2897</v>
       </c>
       <c r="J14" t="n">
-        <v>-8922000000</v>
+        <v>-0.488</v>
       </c>
       <c r="K14" t="n">
-        <v>-1237000000</v>
+        <v>-0.0806</v>
       </c>
       <c r="L14" t="n">
-        <v>593000000</v>
+        <v>0.0454</v>
       </c>
       <c r="M14" t="n">
-        <v>854000000</v>
+        <v>0.0742</v>
       </c>
       <c r="N14" t="n">
-        <v>1009000000</v>
+        <v>0.1127</v>
       </c>
       <c r="O14" t="n">
-        <v>10540000000</v>
+        <v>0.7447</v>
       </c>
       <c r="P14" t="n">
-        <v>659000000</v>
+        <v>0.036</v>
       </c>
       <c r="Q14" t="n">
-        <v>4526000000</v>
+        <v>0.2694</v>
       </c>
       <c r="R14" t="n">
-        <v>4195000000</v>
+        <v>0.2463</v>
       </c>
       <c r="S14" t="n">
-        <v>3205000000</v>
+        <v>0.176</v>
       </c>
       <c r="T14" t="n">
-        <v>3935000000</v>
+        <v>0.1665</v>
       </c>
       <c r="U14" t="n">
-        <v>4767000000</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>eps_basic</t>
+          <t>revenue_growth</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.66</v>
+        <v>0.0195</v>
       </c>
       <c r="C15" t="n">
-        <v>-9.99</v>
+        <v>-0.0674</v>
       </c>
       <c r="D15" t="n">
-        <v>-10.44</v>
+        <v>-0.0009</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.4</v>
+        <v>0.0318</v>
       </c>
       <c r="F15" t="n">
-        <v>-41.07</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>-23.75</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>-31.58</v>
+        <v>0.0638</v>
       </c>
       <c r="I15" t="n">
-        <v>2.72</v>
+        <v>0.0925</v>
       </c>
       <c r="J15" t="n">
-        <v>-19.08</v>
+        <v>0.1849</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.5</v>
+        <v>0.2364</v>
       </c>
       <c r="L15" t="n">
-        <v>0.71</v>
+        <v>0.1315</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>0.1058</v>
       </c>
       <c r="N15" t="n">
-        <v>1.2</v>
+        <v>0.0442</v>
       </c>
       <c r="O15" t="n">
-        <v>12.41</v>
+        <v>0.03</v>
       </c>
       <c r="P15" t="n">
-        <v>0.79</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.68</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>5.59</v>
+        <v>-0.0308</v>
       </c>
       <c r="S15" t="n">
-        <v>4.45</v>
+        <v>0.0427</v>
       </c>
       <c r="T15" t="n">
-        <v>5.69</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="U15" t="n">
-        <v>7.32</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>eps_diluted</t>
+          <t>eps_diluted_growth</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.15</v>
+        <v>0.1319</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.99</v>
+        <v>-2.2257</v>
       </c>
       <c r="D16" t="n">
-        <v>-10.44</v>
+        <v>-0.045</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.4</v>
+        <v>0.3869</v>
       </c>
       <c r="F16" t="n">
-        <v>-41.07</v>
+        <v>-5.4171</v>
       </c>
       <c r="G16" t="n">
-        <v>-23.75</v>
+        <v>0.4217</v>
       </c>
       <c r="H16" t="n">
-        <v>-31.58</v>
+        <v>-0.3296</v>
       </c>
       <c r="I16" t="n">
-        <v>2.11</v>
+        <v>1.0668</v>
       </c>
       <c r="J16" t="n">
-        <v>-19.08</v>
+        <v>-10.0426</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.5</v>
+        <v>0.9213</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7</v>
+        <v>1.4666</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>0.4428</v>
       </c>
       <c r="N16" t="n">
-        <v>1.19</v>
+        <v>0.1782</v>
       </c>
       <c r="O16" t="n">
-        <v>12.29</v>
+        <v>9.3277</v>
       </c>
       <c r="P16" t="n">
-        <v>0.78</v>
+        <v>-0.9365</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.63</v>
+        <v>6.2179</v>
       </c>
       <c r="R16" t="n">
-        <v>5.55</v>
+        <v>-0.0142</v>
       </c>
       <c r="S16" t="n">
-        <v>4.43</v>
+        <v>-0.2018</v>
       </c>
       <c r="T16" t="n">
-        <v>5.67</v>
+        <v>0.2799</v>
       </c>
       <c r="U16" t="n">
-        <v>7.3</v>
+        <v>0.2874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>shares_basic</t>
+          <t>total_equity_growth</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>138000000</v>
+        <v>0.1436</v>
       </c>
       <c r="C17" t="n">
-        <v>123123000</v>
+        <v>-0.259</v>
       </c>
       <c r="D17" t="n">
-        <v>123276000</v>
+        <v>-0.763</v>
       </c>
       <c r="E17" t="n">
-        <v>123438000</v>
+        <v>-1.7379</v>
       </c>
       <c r="F17" t="n">
-        <v>127027000</v>
+        <v>-7.7951</v>
       </c>
       <c r="G17" t="n">
-        <v>161516000</v>
+        <v>-0.7072000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>196485000</v>
+        <v>-0.3737</v>
       </c>
       <c r="I17" t="n">
-        <v>325300000</v>
+        <v>1.7439</v>
       </c>
       <c r="J17" t="n">
-        <v>468000000</v>
+        <v>-0.9135</v>
       </c>
       <c r="K17" t="n">
-        <v>827000000</v>
+        <v>-0.7196</v>
       </c>
       <c r="L17" t="n">
-        <v>834000000</v>
+        <v>2.6612</v>
       </c>
       <c r="M17" t="n">
-        <v>838000000</v>
+        <v>-2.5562</v>
       </c>
       <c r="N17" t="n">
-        <v>845000000</v>
+        <v>-0.5265</v>
       </c>
       <c r="O17" t="n">
-        <v>849000000</v>
+        <v>6.4636</v>
       </c>
       <c r="P17" t="n">
-        <v>836000000</v>
+        <v>-0.243</v>
       </c>
       <c r="Q17" t="n">
-        <v>797000000</v>
+        <v>0.2311</v>
       </c>
       <c r="R17" t="n">
-        <v>751000000</v>
+        <v>0.1324</v>
       </c>
       <c r="S17" t="n">
-        <v>720000000</v>
+        <v>0.0197</v>
       </c>
       <c r="T17" t="n">
-        <v>691000000</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="U17" t="n">
-        <v>651000000</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>shares_diluted</t>
+          <t>cfo_growth</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138000000</v>
+        <v>-0.1903</v>
       </c>
       <c r="C18" t="n">
-        <v>123123000</v>
+        <v>-0.9006999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>123276000</v>
+        <v>0.2076</v>
       </c>
       <c r="E18" t="n">
-        <v>123438000</v>
+        <v>0.5894</v>
       </c>
       <c r="F18" t="n">
-        <v>127027000</v>
+        <v>-3.479</v>
       </c>
       <c r="G18" t="n">
-        <v>161516000</v>
+        <v>0.7266</v>
       </c>
       <c r="H18" t="n">
-        <v>196485000</v>
+        <v>4.2345</v>
       </c>
       <c r="I18" t="n">
-        <v>341300000</v>
+        <v>0.3685</v>
       </c>
       <c r="J18" t="n">
-        <v>468000000</v>
+        <v>-2.256</v>
       </c>
       <c r="K18" t="n">
-        <v>827000000</v>
+        <v>1.8078</v>
       </c>
       <c r="L18" t="n">
-        <v>843000000</v>
+        <v>1.0536</v>
       </c>
       <c r="M18" t="n">
-        <v>844000000</v>
+        <v>0.0007</v>
       </c>
       <c r="N18" t="n">
-        <v>850000000</v>
+        <v>-0.1263</v>
       </c>
       <c r="O18" t="n">
-        <v>858000000</v>
+        <v>0.819</v>
       </c>
       <c r="P18" t="n">
-        <v>845000000</v>
+        <v>0.0983</v>
       </c>
       <c r="Q18" t="n">
-        <v>804000000</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="R18" t="n">
-        <v>755000000</v>
+        <v>-0.0898</v>
       </c>
       <c r="S18" t="n">
-        <v>723000000</v>
+        <v>-0.3038</v>
       </c>
       <c r="T18" t="n">
-        <v>694000000</v>
+        <v>0.3963</v>
       </c>
       <c r="U18" t="n">
-        <v>653000000</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cash_and_equiv</t>
+          <t>fcf_growth</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1252000000</v>
+        <v>-6.5508</v>
       </c>
       <c r="C19" t="n">
-        <v>2210000000</v>
+        <v>-2.803</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.6382</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.6936</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-4.9746</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.5779</v>
       </c>
       <c r="H19" t="n">
-        <v>2034000000</v>
+        <v>1.8908</v>
       </c>
       <c r="I19" t="n">
-        <v>2648000000</v>
+        <v>-0.3096</v>
       </c>
       <c r="J19" t="n">
-        <v>4255000000</v>
+        <v>-8.1845</v>
       </c>
       <c r="K19" t="n">
-        <v>4607000000</v>
+        <v>1.09</v>
       </c>
       <c r="L19" t="n">
-        <v>2892000000</v>
+        <v>4.509</v>
       </c>
       <c r="M19" t="n">
-        <v>2657000000</v>
+        <v>0.0353</v>
       </c>
       <c r="N19" t="n">
-        <v>2416000000</v>
+        <v>-0.6784</v>
       </c>
       <c r="O19" t="n">
-        <v>2844000000</v>
+        <v>2.9035</v>
       </c>
       <c r="P19" t="n">
-        <v>2088000000</v>
+        <v>0.3605</v>
       </c>
       <c r="Q19" t="n">
-        <v>1972000000</v>
+        <v>0.8465</v>
       </c>
       <c r="R19" t="n">
-        <v>2762000000</v>
+        <v>-0.187</v>
       </c>
       <c r="S19" t="n">
-        <v>1814000000</v>
+        <v>-0.7204</v>
       </c>
       <c r="T19" t="n">
-        <v>1565000000</v>
+        <v>0.6307</v>
       </c>
       <c r="U19" t="n">
-        <v>2882000000</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>st_investments</t>
+          <t>fcf</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>493000000</v>
+        <v>-655000000</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-2491000000</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-901000000</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-276000000</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1649000000</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-696000000</v>
       </c>
       <c r="H20" t="n">
-        <v>614000000</v>
+        <v>620000000</v>
       </c>
       <c r="I20" t="n">
-        <v>138000000</v>
+        <v>428000000</v>
       </c>
       <c r="J20" t="n">
-        <v>212000000</v>
+        <v>-3075000000</v>
       </c>
       <c r="K20" t="n">
-        <v>71000000</v>
+        <v>277000000</v>
       </c>
       <c r="L20" t="n">
-        <v>718000000</v>
+        <v>1526000000</v>
       </c>
       <c r="M20" t="n">
-        <v>958000000</v>
+        <v>1580000000</v>
       </c>
       <c r="N20" t="n">
-        <v>958000000</v>
+        <v>508000000</v>
       </c>
       <c r="O20" t="n">
-        <v>959000000</v>
+        <v>1983000000</v>
       </c>
       <c r="P20" t="n">
-        <v>1217000000</v>
+        <v>2698000000</v>
       </c>
       <c r="Q20" t="n">
-        <v>1465000000</v>
+        <v>4982000000</v>
       </c>
       <c r="R20" t="n">
-        <v>487000000</v>
+        <v>4050000000</v>
       </c>
       <c r="S20" t="n">
-        <v>825000000</v>
+        <v>1132000000</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1846000000</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3489000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>receivables</t>
+          <t>book_value_per_share</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>739000000</v>
+        <v>36.8623</v>
       </c>
       <c r="C21" t="n">
-        <v>368000000</v>
+        <v>26.9405</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7.2439</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-5.3387</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-45.628</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-61.2632</v>
       </c>
       <c r="H21" t="n">
-        <v>915000000</v>
+        <v>-69.1808</v>
       </c>
       <c r="I21" t="n">
-        <v>1066000000</v>
+        <v>29.6308</v>
       </c>
       <c r="J21" t="n">
-        <v>2652000000</v>
+        <v>1.8675</v>
       </c>
       <c r="K21" t="n">
-        <v>1353000000</v>
+        <v>0.2962</v>
       </c>
       <c r="L21" t="n">
-        <v>1456000000</v>
+        <v>1.064</v>
       </c>
       <c r="M21" t="n">
-        <v>1563000000</v>
+        <v>-1.654</v>
       </c>
       <c r="N21" t="n">
-        <v>1693000000</v>
+        <v>-2.507</v>
       </c>
       <c r="O21" t="n">
-        <v>1612000000</v>
+        <v>13.5699</v>
       </c>
       <c r="P21" t="n">
-        <v>3222000000</v>
+        <v>10.4295</v>
       </c>
       <c r="Q21" t="n">
-        <v>2020000000</v>
+        <v>13.495</v>
       </c>
       <c r="R21" t="n">
-        <v>2064000000</v>
+        <v>16.2741</v>
       </c>
       <c r="S21" t="n">
-        <v>2377000000</v>
+        <v>17.3305</v>
       </c>
       <c r="T21" t="n">
-        <v>2314000000</v>
+        <v>19.7219</v>
       </c>
       <c r="U21" t="n">
-        <v>2854000000</v>
+        <v>23.5191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>inventories</t>
+          <t>market_cap</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>181000000</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8414,59 +8436,59 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>181000000</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>262000000</v>
+        <v>4351245140</v>
       </c>
       <c r="J22" t="n">
-        <v>388000000</v>
+        <v>8000650020</v>
       </c>
       <c r="K22" t="n">
-        <v>327000000</v>
+        <v>8921407900</v>
       </c>
       <c r="L22" t="n">
-        <v>318000000</v>
+        <v>10517522400</v>
       </c>
       <c r="M22" t="n">
-        <v>535000000</v>
+        <v>6838040140</v>
       </c>
       <c r="N22" t="n">
-        <v>1023000000</v>
+        <v>10106141740</v>
       </c>
       <c r="O22" t="n">
-        <v>1063000000</v>
+        <v>23389139210</v>
       </c>
       <c r="P22" t="n">
-        <v>852000000</v>
+        <v>40594441020</v>
       </c>
       <c r="Q22" t="n">
-        <v>697000000</v>
+        <v>39476560960</v>
       </c>
       <c r="R22" t="n">
-        <v>891000000</v>
+        <v>35945002220</v>
       </c>
       <c r="S22" t="n">
-        <v>1329000000</v>
+        <v>39603088000</v>
       </c>
       <c r="T22" t="n">
-        <v>1055000000</v>
+        <v>33929205600</v>
       </c>
       <c r="U22" t="n">
-        <v>1251000000</v>
+        <v>37589306560</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>other_current_assets</t>
+          <t>price_to_earnings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>968000000</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>808000000</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -8481,6009 +8503,46 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1641000000</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1126000000</v>
+        <v>2.6992</v>
       </c>
       <c r="J23" t="n">
-        <v>1467000000</v>
+        <v>-0.8967000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>1633000000</v>
+        <v>-7.2121</v>
       </c>
       <c r="L23" t="n">
-        <v>1923000000</v>
+        <v>17.7361</v>
       </c>
       <c r="M23" t="n">
-        <v>2016000000</v>
+        <v>8.007</v>
       </c>
       <c r="N23" t="n">
-        <v>2182000000</v>
+        <v>10.0159</v>
       </c>
       <c r="O23" t="n">
-        <v>3173000000</v>
+        <v>2.219</v>
       </c>
       <c r="P23" t="n">
-        <v>1779000000</v>
+        <v>61.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>2902000000</v>
+        <v>8.722099999999999</v>
       </c>
       <c r="R23" t="n">
-        <v>1247000000</v>
+        <v>8.5685</v>
       </c>
       <c r="S23" t="n">
-        <v>1459000000</v>
+        <v>12.3566</v>
       </c>
       <c r="T23" t="n">
-        <v>1406000000</v>
+        <v>8.622400000000001</v>
       </c>
       <c r="U23" t="n">
-        <v>1262000000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>total_current_assets</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>3452000000</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3567000000</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5385000000</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5240000000</v>
-      </c>
-      <c r="J24" t="n">
-        <v>8974000000</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7991000000</v>
-      </c>
-      <c r="L24" t="n">
-        <v>7307000000</v>
-      </c>
-      <c r="M24" t="n">
-        <v>7729000000</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8272000000</v>
-      </c>
-      <c r="O24" t="n">
-        <v>9651000000</v>
-      </c>
-      <c r="P24" t="n">
-        <v>9158000000</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>9056000000</v>
-      </c>
-      <c r="R24" t="n">
-        <v>7451000000</v>
-      </c>
-      <c r="S24" t="n">
-        <v>7804000000</v>
-      </c>
-      <c r="T24" t="n">
-        <v>6340000000</v>
-      </c>
-      <c r="U24" t="n">
-        <v>8249000000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>equity_and_other_investments</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>276000000</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ppe_net</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>13385000000</v>
-      </c>
-      <c r="C26" t="n">
-        <v>16097000000</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>12973000000</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11701000000</v>
-      </c>
-      <c r="J26" t="n">
-        <v>20627000000</v>
-      </c>
-      <c r="K26" t="n">
-        <v>20433000000</v>
-      </c>
-      <c r="L26" t="n">
-        <v>20307000000</v>
-      </c>
-      <c r="M26" t="n">
-        <v>20223000000</v>
-      </c>
-      <c r="N26" t="n">
-        <v>20713000000</v>
-      </c>
-      <c r="O26" t="n">
-        <v>21854000000</v>
-      </c>
-      <c r="P26" t="n">
-        <v>21929000000</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>23039000000</v>
-      </c>
-      <c r="R26" t="n">
-        <v>24375000000</v>
-      </c>
-      <c r="S26" t="n">
-        <v>26563000000</v>
-      </c>
-      <c r="T26" t="n">
-        <v>34329000000</v>
-      </c>
-      <c r="U26" t="n">
-        <v>36937000000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>goodwill</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2092000000</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>227000000</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12104000000</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9731000000</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9787000000</v>
-      </c>
-      <c r="L27" t="n">
-        <v>9794000000</v>
-      </c>
-      <c r="M27" t="n">
-        <v>9794000000</v>
-      </c>
-      <c r="N27" t="n">
-        <v>9794000000</v>
-      </c>
-      <c r="O27" t="n">
-        <v>9794000000</v>
-      </c>
-      <c r="P27" t="n">
-        <v>9794000000</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>9794000000</v>
-      </c>
-      <c r="R27" t="n">
-        <v>9794000000</v>
-      </c>
-      <c r="S27" t="n">
-        <v>9794000000</v>
-      </c>
-      <c r="T27" t="n">
-        <v>9781000000</v>
-      </c>
-      <c r="U27" t="n">
-        <v>9781000000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>intangible_assets</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2287000000</v>
-      </c>
-      <c r="C28" t="n">
-        <v>94000000</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>89000000</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2806000000</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4944000000</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4829000000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4749000000</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4751000000</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4679000000</v>
-      </c>
-      <c r="O28" t="n">
-        <v>4658000000</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4603000000</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4861000000</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4844000000</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4847000000</v>
-      </c>
-      <c r="T28" t="n">
-        <v>4830000000</v>
-      </c>
-      <c r="U28" t="n">
-        <v>5163000000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>other_lt_assets</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1442000000</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1479000000</v>
-      </c>
-      <c r="D29" t="n">
-        <v>24720000000</v>
-      </c>
-      <c r="E29" t="n">
-        <v>25939000000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>21801000000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>20039000000</v>
-      </c>
-      <c r="H29" t="n">
-        <v>948000000</v>
-      </c>
-      <c r="I29" t="n">
-        <v>572000000</v>
-      </c>
-      <c r="J29" t="n">
-        <v>808000000</v>
-      </c>
-      <c r="K29" t="n">
-        <v>749000000</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1031000000</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1002000000</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1092000000</v>
-      </c>
-      <c r="O29" t="n">
-        <v>6295000000</v>
-      </c>
-      <c r="P29" t="n">
-        <v>8521000000</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>6384000000</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4797000000</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4663000000</v>
-      </c>
-      <c r="T29" t="n">
-        <v>4986000000</v>
-      </c>
-      <c r="U29" t="n">
-        <v>4402000000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>total_assets</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>20566000000</v>
-      </c>
-      <c r="C30" t="n">
-        <v>23605000000</v>
-      </c>
-      <c r="D30" t="n">
-        <v>24720000000</v>
-      </c>
-      <c r="E30" t="n">
-        <v>25939000000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>21801000000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>20039000000</v>
-      </c>
-      <c r="H30" t="n">
-        <v>19622000000</v>
-      </c>
-      <c r="I30" t="n">
-        <v>32423000000</v>
-      </c>
-      <c r="J30" t="n">
-        <v>45084000000</v>
-      </c>
-      <c r="K30" t="n">
-        <v>43789000000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>43188000000</v>
-      </c>
-      <c r="M30" t="n">
-        <v>43499000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>44550000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>52252000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>54005000000</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>53134000000</v>
-      </c>
-      <c r="R30" t="n">
-        <v>51261000000</v>
-      </c>
-      <c r="S30" t="n">
-        <v>53671000000</v>
-      </c>
-      <c r="T30" t="n">
-        <v>60266000000</v>
-      </c>
-      <c r="U30" t="n">
-        <v>64532000000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>accounts_payable</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2318000000</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1617000000</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>936000000</v>
-      </c>
-      <c r="I31" t="n">
-        <v>839000000</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1604000000</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1249000000</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1713000000</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1600000000</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2293000000</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2300000000</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2622000000</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2743000000</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2572000000</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3634000000</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2976000000</v>
-      </c>
-      <c r="U31" t="n">
-        <v>3266000000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>tax_payable</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1049000000</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>500000000</v>
-      </c>
-      <c r="I32" t="n">
-        <v>323000000</v>
-      </c>
-      <c r="J32" t="n">
-        <v>565000000</v>
-      </c>
-      <c r="K32" t="n">
-        <v>525000000</v>
-      </c>
-      <c r="L32" t="n">
-        <v>579000000</v>
-      </c>
-      <c r="M32" t="n">
-        <v>594000000</v>
-      </c>
-      <c r="N32" t="n">
-        <v>585000000</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>current_accrued_liabilities</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1121000000</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>670000000</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1097000000</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1507000000</v>
-      </c>
-      <c r="K33" t="n">
-        <v>765000000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>654000000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2916000000</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2808000000</v>
-      </c>
-      <c r="O33" t="n">
-        <v>4176000000</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4393000000</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4501000000</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4831000000</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4890000000</v>
-      </c>
-      <c r="T33" t="n">
-        <v>4404000000</v>
-      </c>
-      <c r="U33" t="n">
-        <v>4779000000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>st_debt</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>569000000</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1025000000</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1503000000</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3291000000</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5792000000</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1533000000</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2073000000</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1944000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1627000000</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1547000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1184000000</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1563000000</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1131000000</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2242000000</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1518000000</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2287000000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>current_deferred_revenue</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1055000000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1624000000</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4688000000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4996000000</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5329000000</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5502000000</v>
-      </c>
-      <c r="O35" t="n">
-        <v>5983000000</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5876000000</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>6138000000</v>
-      </c>
-      <c r="R35" t="n">
-        <v>6274000000</v>
-      </c>
-      <c r="S35" t="n">
-        <v>7126000000</v>
-      </c>
-      <c r="T35" t="n">
-        <v>7650000000</v>
-      </c>
-      <c r="U35" t="n">
-        <v>8335000000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>current_deferred_tax_liability</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>other_current_liabilities</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>3053000000</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1591000000</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2160000000</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1037000000</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1370000000</v>
-      </c>
-      <c r="M37" t="n">
-        <v>318000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>455000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>146000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2772000000</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2581000000</v>
-      </c>
-      <c r="R37" t="n">
-        <v>431000000</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1067000000</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2030000000</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1537000000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>total_current_liabilities</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>5940000000</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6403000000</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>5769000000</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6605000000</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11092000000</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9797000000</v>
-      </c>
-      <c r="L38" t="n">
-        <v>11385000000</v>
-      </c>
-      <c r="M38" t="n">
-        <v>12701000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>13270000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>14152000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>16847000000</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>17526000000</v>
-      </c>
-      <c r="R38" t="n">
-        <v>15239000000</v>
-      </c>
-      <c r="S38" t="n">
-        <v>18959000000</v>
-      </c>
-      <c r="T38" t="n">
-        <v>18578000000</v>
-      </c>
-      <c r="U38" t="n">
-        <v>20204000000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>lt_debt</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4525000000</v>
-      </c>
-      <c r="C39" t="n">
-        <v>8279000000</v>
-      </c>
-      <c r="D39" t="n">
-        <v>10174000000</v>
-      </c>
-      <c r="E39" t="n">
-        <v>11538000000</v>
-      </c>
-      <c r="F39" t="n">
-        <v>13005000000</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6557000000</v>
-      </c>
-      <c r="H39" t="n">
-        <v>6509000000</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7986000000</v>
-      </c>
-      <c r="J39" t="n">
-        <v>15411000000</v>
-      </c>
-      <c r="K39" t="n">
-        <v>15665000000</v>
-      </c>
-      <c r="L39" t="n">
-        <v>13179000000</v>
-      </c>
-      <c r="M39" t="n">
-        <v>11847000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>11082000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>9795000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>8477000000</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>6766000000</v>
-      </c>
-      <c r="R39" t="n">
-        <v>6201000000</v>
-      </c>
-      <c r="S39" t="n">
-        <v>6592000000</v>
-      </c>
-      <c r="T39" t="n">
-        <v>8253000000</v>
-      </c>
-      <c r="U39" t="n">
-        <v>8873000000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>noncurrent_capital_leases</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>68000000</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>5801000000</v>
-      </c>
-      <c r="U40" t="n">
-        <v>5294000000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>pension_liabilities</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2008000000</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3867000000</v>
-      </c>
-      <c r="J41" t="n">
-        <v>10895000000</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11745000000</v>
-      </c>
-      <c r="L41" t="n">
-        <v>11493000000</v>
-      </c>
-      <c r="M41" t="n">
-        <v>14200000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>16005000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>12392000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>15138000000</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>13855000000</v>
-      </c>
-      <c r="R41" t="n">
-        <v>13378000000</v>
-      </c>
-      <c r="S41" t="n">
-        <v>9810000000</v>
-      </c>
-      <c r="T41" t="n">
-        <v>9163000000</v>
-      </c>
-      <c r="U41" t="n">
-        <v>8452000000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>noncurrent_deferred_revenue</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>869000000</v>
-      </c>
-      <c r="C42" t="n">
-        <v>465000000</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>752000000</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3131000000</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5470000000</v>
-      </c>
-      <c r="K42" t="n">
-        <v>5115000000</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4701000000</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4728000000</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4675000000</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2559000000</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2602000000</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2246000000</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2278000000</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3559000000</v>
-      </c>
-      <c r="T42" t="n">
-        <v>3815000000</v>
-      </c>
-      <c r="U42" t="n">
-        <v>4965000000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>other_lt_liabilities</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2137000000</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4621000000</v>
-      </c>
-      <c r="D43" t="n">
-        <v>13653000000</v>
-      </c>
-      <c r="E43" t="n">
-        <v>15060000000</v>
-      </c>
-      <c r="F43" t="n">
-        <v>14592000000</v>
-      </c>
-      <c r="G43" t="n">
-        <v>23377000000</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20185000000</v>
-      </c>
-      <c r="I43" t="n">
-        <v>721000000</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1342000000</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1222000000</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1533000000</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1419000000</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1649000000</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1711000000</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2128000000</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1891000000</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1878000000</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2221000000</v>
-      </c>
-      <c r="T43" t="n">
-        <v>969000000</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1386000000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>total_liabilities</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>15479000000</v>
-      </c>
-      <c r="C44" t="n">
-        <v>19836000000</v>
-      </c>
-      <c r="D44" t="n">
-        <v>23827000000</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26598000000</v>
-      </c>
-      <c r="F44" t="n">
-        <v>27597000000</v>
-      </c>
-      <c r="G44" t="n">
-        <v>29934000000</v>
-      </c>
-      <c r="H44" t="n">
-        <v>33215000000</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22310000000</v>
-      </c>
-      <c r="J44" t="n">
-        <v>44210000000</v>
-      </c>
-      <c r="K44" t="n">
-        <v>43544000000</v>
-      </c>
-      <c r="L44" t="n">
-        <v>42291000000</v>
-      </c>
-      <c r="M44" t="n">
-        <v>44895000000</v>
-      </c>
-      <c r="N44" t="n">
-        <v>46681000000</v>
-      </c>
-      <c r="O44" t="n">
-        <v>40609000000</v>
-      </c>
-      <c r="P44" t="n">
-        <v>45192000000</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>42284000000</v>
-      </c>
-      <c r="R44" t="n">
-        <v>38974000000</v>
-      </c>
-      <c r="S44" t="n">
-        <v>41141000000</v>
-      </c>
-      <c r="T44" t="n">
-        <v>46579000000</v>
-      </c>
-      <c r="U44" t="n">
-        <v>49174000000</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>retained_earnings</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4043000000</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2930000000</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-14414000000</v>
-      </c>
-      <c r="I45" t="n">
-        <v>314000000</v>
-      </c>
-      <c r="J45" t="n">
-        <v>-8608000000</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-9845000000</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-9252000000</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-8398000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-7389000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>3049000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3456000000</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5562000000</v>
-      </c>
-      <c r="R45" t="n">
-        <v>7903000000</v>
-      </c>
-      <c r="S45" t="n">
-        <v>8256000000</v>
-      </c>
-      <c r="T45" t="n">
-        <v>10039000000</v>
-      </c>
-      <c r="U45" t="n">
-        <v>12454000000</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>apic</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>3245000000</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3267000000</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1561000000</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9512000000</v>
-      </c>
-      <c r="J46" t="n">
-        <v>13714000000</v>
-      </c>
-      <c r="K46" t="n">
-        <v>13827000000</v>
-      </c>
-      <c r="L46" t="n">
-        <v>13926000000</v>
-      </c>
-      <c r="M46" t="n">
-        <v>13999000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>14069000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>13982000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>12981000000</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>12936000000</v>
-      </c>
-      <c r="R46" t="n">
-        <v>12294000000</v>
-      </c>
-      <c r="S46" t="n">
-        <v>12053000000</v>
-      </c>
-      <c r="T46" t="n">
-        <v>11671000000</v>
-      </c>
-      <c r="U46" t="n">
-        <v>11129000000</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>common_stock</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>271000000</v>
-      </c>
-      <c r="C47" t="n">
-        <v>271000000</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>aoci</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-518000000</v>
-      </c>
-      <c r="I48" t="n">
-        <v>435000000</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-4080000000</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-3563000000</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-3578000000</v>
-      </c>
-      <c r="M48" t="n">
-        <v>-6766000000</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-8577000000</v>
-      </c>
-      <c r="O48" t="n">
-        <v>-5130000000</v>
-      </c>
-      <c r="P48" t="n">
-        <v>-7311000000</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-7275000000</v>
-      </c>
-      <c r="R48" t="n">
-        <v>-7636000000</v>
-      </c>
-      <c r="S48" t="n">
-        <v>-7621000000</v>
-      </c>
-      <c r="T48" t="n">
-        <v>-7825000000</v>
-      </c>
-      <c r="U48" t="n">
-        <v>-7989000000</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>minority_interest_liability</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>treasury_stock</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-2726000000</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-2724000000</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-224000000</v>
-      </c>
-      <c r="I50" t="n">
-        <v>-148000000</v>
-      </c>
-      <c r="J50" t="n">
-        <v>-152000000</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-174000000</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-199000000</v>
-      </c>
-      <c r="M50" t="n">
-        <v>-231000000</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-234000000</v>
-      </c>
-      <c r="O50" t="n">
-        <v>-258000000</v>
-      </c>
-      <c r="P50" t="n">
-        <v>-313000000</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>-373000000</v>
-      </c>
-      <c r="R50" t="n">
-        <v>-274000000</v>
-      </c>
-      <c r="S50" t="n">
-        <v>-158000000</v>
-      </c>
-      <c r="T50" t="n">
-        <v>-198000000</v>
-      </c>
-      <c r="U50" t="n">
-        <v>-236000000</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>total_equity</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>5087000000</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3769000000</v>
-      </c>
-      <c r="D51" t="n">
-        <v>893000000</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-659000000</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-5796000000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-9895000000</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-13593000000</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10113000000</v>
-      </c>
-      <c r="J51" t="n">
-        <v>874000000</v>
-      </c>
-      <c r="K51" t="n">
-        <v>245000000</v>
-      </c>
-      <c r="L51" t="n">
-        <v>897000000</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-1396000000</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2131000000</v>
-      </c>
-      <c r="O51" t="n">
-        <v>11643000000</v>
-      </c>
-      <c r="P51" t="n">
-        <v>8813000000</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>10850000000</v>
-      </c>
-      <c r="R51" t="n">
-        <v>12287000000</v>
-      </c>
-      <c r="S51" t="n">
-        <v>12530000000</v>
-      </c>
-      <c r="T51" t="n">
-        <v>13687000000</v>
-      </c>
-      <c r="U51" t="n">
-        <v>15358000000</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>net_income_continuing</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1262000000</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-1216000000</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-1272000000</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-773000000</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-5198000000</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-3818000000</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-6203000000</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1612000000</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-8922000000</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-1237000000</v>
-      </c>
-      <c r="L52" t="n">
-        <v>593000000</v>
-      </c>
-      <c r="M52" t="n">
-        <v>854000000</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1009000000</v>
-      </c>
-      <c r="O52" t="n">
-        <v>10540000000</v>
-      </c>
-      <c r="P52" t="n">
-        <v>659000000</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4526000000</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4195000000</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3205000000</v>
-      </c>
-      <c r="T52" t="n">
-        <v>3935000000</v>
-      </c>
-      <c r="U52" t="n">
-        <v>4767000000</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>cfo_da</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>-1146000000</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1283000000</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1181000000</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1230000000</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1244000000</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1273000000</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1276000000</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1164000000</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1266000000</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1536000000</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1511000000</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1523000000</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1565000000</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1658000000</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1771000000</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1835000000</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1886000000</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2222000000</v>
-      </c>
-      <c r="T53" t="n">
-        <v>2329000000</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2581000000</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>cfo_change_in_working_capital</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>-28000000</v>
-      </c>
-      <c r="C54" t="n">
-        <v>107000000</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-278000000</v>
-      </c>
-      <c r="E54" t="n">
-        <v>227000000</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-89000000</v>
-      </c>
-      <c r="G54" t="n">
-        <v>477000000</v>
-      </c>
-      <c r="H54" t="n">
-        <v>-369000000</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159000000</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-1339000000</v>
-      </c>
-      <c r="K54" t="n">
-        <v>856000000</v>
-      </c>
-      <c r="L54" t="n">
-        <v>173000000</v>
-      </c>
-      <c r="M54" t="n">
-        <v>247000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>262000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>794000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>-768000000</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1242000000</v>
-      </c>
-      <c r="R54" t="n">
-        <v>-30000000</v>
-      </c>
-      <c r="S54" t="n">
-        <v>705000000</v>
-      </c>
-      <c r="T54" t="n">
-        <v>423000000</v>
-      </c>
-      <c r="U54" t="n">
-        <v>219000000</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>cfo_deferred_tax</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>250000000</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-648000000</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-411000000</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-416000000</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1206000000</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-41000000</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-765000000</v>
-      </c>
-      <c r="I55" t="n">
-        <v>207000000</v>
-      </c>
-      <c r="J55" t="n">
-        <v>-119000000</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-329000000</v>
-      </c>
-      <c r="L55" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="M55" t="n">
-        <v>-2000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>-7991000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>414000000</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2581000000</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2118000000</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2242000000</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1364000000</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1473000000</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>cfo_stock_comp</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>54000000</v>
-      </c>
-      <c r="K56" t="n">
-        <v>108000000</v>
-      </c>
-      <c r="L56" t="n">
-        <v>89000000</v>
-      </c>
-      <c r="M56" t="n">
-        <v>72000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>54000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>cfo_other_noncash_items</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1933000000</v>
-      </c>
-      <c r="C57" t="n">
-        <v>710000000</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1065000000</v>
-      </c>
-      <c r="E57" t="n">
-        <v>185000000</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1714000000</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1802000000</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7054000000</v>
-      </c>
-      <c r="I57" t="n">
-        <v>-1783000000</v>
-      </c>
-      <c r="J57" t="n">
-        <v>7353000000</v>
-      </c>
-      <c r="K57" t="n">
-        <v>445000000</v>
-      </c>
-      <c r="L57" t="n">
-        <v>457000000</v>
-      </c>
-      <c r="M57" t="n">
-        <v>140000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-431000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>-497000000</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2871000000</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>-2257000000</v>
-      </c>
-      <c r="R57" t="n">
-        <v>-954000000</v>
-      </c>
-      <c r="S57" t="n">
-        <v>-3351000000</v>
-      </c>
-      <c r="T57" t="n">
-        <v>-1037000000</v>
-      </c>
-      <c r="U57" t="n">
-        <v>-615000000</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>cf_cfo</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2378000000</v>
-      </c>
-      <c r="C58" t="n">
-        <v>236000000</v>
-      </c>
-      <c r="D58" t="n">
-        <v>285000000</v>
-      </c>
-      <c r="E58" t="n">
-        <v>453000000</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-1123000000</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-307000000</v>
-      </c>
-      <c r="H58" t="n">
-        <v>993000000</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1359000000</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-1707000000</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1379000000</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2832000000</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2834000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2476000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>4504000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4947000000</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>7927000000</v>
-      </c>
-      <c r="R58" t="n">
-        <v>7215000000</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5023000000</v>
-      </c>
-      <c r="T58" t="n">
-        <v>7014000000</v>
-      </c>
-      <c r="U58" t="n">
-        <v>8425000000</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>cfi_ppe_net</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>-3033000000</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-2727000000</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-1186000000</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-729000000</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-526000000</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-389000000</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-373000000</v>
-      </c>
-      <c r="I59" t="n">
-        <v>-931000000</v>
-      </c>
-      <c r="J59" t="n">
-        <v>-1368000000</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-1102000000</v>
-      </c>
-      <c r="L59" t="n">
-        <v>-1306000000</v>
-      </c>
-      <c r="M59" t="n">
-        <v>-1254000000</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-1968000000</v>
-      </c>
-      <c r="O59" t="n">
-        <v>-2521000000</v>
-      </c>
-      <c r="P59" t="n">
-        <v>-2249000000</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>-2945000000</v>
-      </c>
-      <c r="R59" t="n">
-        <v>-3165000000</v>
-      </c>
-      <c r="S59" t="n">
-        <v>-3891000000</v>
-      </c>
-      <c r="T59" t="n">
-        <v>-5168000000</v>
-      </c>
-      <c r="U59" t="n">
-        <v>-4936000000</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>cfi_acquisitions_net</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>-1584000000</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>417000000</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2441000000</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>-407000000</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>-500000000</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" t="n">
-        <v>-1245000000</v>
-      </c>
-      <c r="T60" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="U60" t="n">
-        <v>109000000</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>cfi_investment_net</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>930000000</v>
-      </c>
-      <c r="C61" t="n">
-        <v>39000000</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-47000000</v>
-      </c>
-      <c r="E61" t="n">
-        <v>456000000</v>
-      </c>
-      <c r="F61" t="n">
-        <v>350000000</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>302000000</v>
-      </c>
-      <c r="J61" t="n">
-        <v>517000000</v>
-      </c>
-      <c r="K61" t="n">
-        <v>157000000</v>
-      </c>
-      <c r="L61" t="n">
-        <v>-666000000</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-234000000</v>
-      </c>
-      <c r="N61" t="n">
-        <v>61000000</v>
-      </c>
-      <c r="O61" t="n">
-        <v>158000000</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-262000000</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>-259000000</v>
-      </c>
-      <c r="R61" t="n">
-        <v>979000000</v>
-      </c>
-      <c r="S61" t="n">
-        <v>-341000000</v>
-      </c>
-      <c r="T61" t="n">
-        <v>621000000</v>
-      </c>
-      <c r="U61" t="n">
-        <v>206000000</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>cfi_other</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>-215000000</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-8000000</v>
-      </c>
-      <c r="D62" t="n">
-        <v>124000000</v>
-      </c>
-      <c r="E62" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-44000000</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-6000000</v>
-      </c>
-      <c r="H62" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="J62" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-63000000</v>
-      </c>
-      <c r="L62" t="n">
-        <v>-54000000</v>
-      </c>
-      <c r="M62" t="n">
-        <v>-10000000</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-55000000</v>
-      </c>
-      <c r="O62" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="P62" t="n">
-        <v>48000000</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>-251000000</v>
-      </c>
-      <c r="R62" t="n">
-        <v>31000000</v>
-      </c>
-      <c r="S62" t="n">
-        <v>211000000</v>
-      </c>
-      <c r="T62" t="n">
-        <v>126000000</v>
-      </c>
-      <c r="U62" t="n">
-        <v>58000000</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>cf_cfi</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>-3902000000</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-2696000000</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-1109000000</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-260000000</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-220000000</v>
-      </c>
-      <c r="G63" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-361000000</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-625000000</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1598000000</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-1008000000</v>
-      </c>
-      <c r="L63" t="n">
-        <v>-2026000000</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-1498000000</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-1962000000</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-2756000000</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-2463000000</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>-3955000000</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-2155000000</v>
-      </c>
-      <c r="S63" t="n">
-        <v>-5266000000</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-4393000000</v>
-      </c>
-      <c r="U63" t="n">
-        <v>-4563000000</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>cff_common_stock_net</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>-762000000</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-42000000</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>192000000</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-250000000</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-1100000000</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>-2200000000</v>
-      </c>
-      <c r="R64" t="n">
-        <v>-2601000000</v>
-      </c>
-      <c r="S64" t="n">
-        <v>-1677000000</v>
-      </c>
-      <c r="T64" t="n">
-        <v>-1575000000</v>
-      </c>
-      <c r="U64" t="n">
-        <v>-2027000000</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>cff_debt_net</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2456000000</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3361000000</v>
-      </c>
-      <c r="D65" t="n">
-        <v>676000000</v>
-      </c>
-      <c r="E65" t="n">
-        <v>972000000</v>
-      </c>
-      <c r="F65" t="n">
-        <v>671000000</v>
-      </c>
-      <c r="G65" t="n">
-        <v>930000000</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-476000000</v>
-      </c>
-      <c r="I65" t="n">
-        <v>-51000000</v>
-      </c>
-      <c r="J65" t="n">
-        <v>536000000</v>
-      </c>
-      <c r="K65" t="n">
-        <v>75000000</v>
-      </c>
-      <c r="L65" t="n">
-        <v>-3722000000</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-4172000000</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2864000000</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-1461000000</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-2928000000</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>-2558000000</v>
-      </c>
-      <c r="R65" t="n">
-        <v>-1259000000</v>
-      </c>
-      <c r="S65" t="n">
-        <v>-1258000000</v>
-      </c>
-      <c r="T65" t="n">
-        <v>-3052000000</v>
-      </c>
-      <c r="U65" t="n">
-        <v>-1570000000</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>cff_dividend_paid</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>-42000000</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-40000000</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-39000000</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-19000000</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-102000000</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-251000000</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>-359000000</v>
-      </c>
-      <c r="R66" t="n">
-        <v>-509000000</v>
-      </c>
-      <c r="S66" t="n">
-        <v>-731000000</v>
-      </c>
-      <c r="T66" t="n">
-        <v>-909000000</v>
-      </c>
-      <c r="U66" t="n">
-        <v>-980000000</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>cff_other</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-17000000</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-12000000</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-405000000</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-35000000</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-100000000</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-130000000</v>
-      </c>
-      <c r="I67" t="n">
-        <v>-69000000</v>
-      </c>
-      <c r="J67" t="n">
-        <v>988000000</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-94000000</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1201000000</v>
-      </c>
-      <c r="M67" t="n">
-        <v>2601000000</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2109000000</v>
-      </c>
-      <c r="O67" t="n">
-        <v>493000000</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1039000000</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1029000000</v>
-      </c>
-      <c r="R67" t="n">
-        <v>109000000</v>
-      </c>
-      <c r="S67" t="n">
-        <v>2936000000</v>
-      </c>
-      <c r="T67" t="n">
-        <v>3810000000</v>
-      </c>
-      <c r="U67" t="n">
-        <v>1697000000</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>cf_cff</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1652000000</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3306000000</v>
-      </c>
-      <c r="D68" t="n">
-        <v>583000000</v>
-      </c>
-      <c r="E68" t="n">
-        <v>548000000</v>
-      </c>
-      <c r="F68" t="n">
-        <v>636000000</v>
-      </c>
-      <c r="G68" t="n">
-        <v>830000000</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-606000000</v>
-      </c>
-      <c r="I68" t="n">
-        <v>-120000000</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1716000000</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-19000000</v>
-      </c>
-      <c r="L68" t="n">
-        <v>-2521000000</v>
-      </c>
-      <c r="M68" t="n">
-        <v>-1571000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-755000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-1320000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-3240000000</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>-4088000000</v>
-      </c>
-      <c r="R68" t="n">
-        <v>-4260000000</v>
-      </c>
-      <c r="S68" t="n">
-        <v>-730000000</v>
-      </c>
-      <c r="T68" t="n">
-        <v>-1726000000</v>
-      </c>
-      <c r="U68" t="n">
-        <v>-2880000000</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>roa</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.06469999999999999</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.055</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.0526</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.0305</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-0.2177</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-0.1825</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-0.3128</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.0619</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-0.2302</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-0.0278</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.0136</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.0229</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.2177</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.0124</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.0844</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.0803</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0.07630000000000001</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.2746</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.5456</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-6.6068</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1.6105</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.4866</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.5281</v>
-      </c>
-      <c r="I70" t="n">
-        <v>-0.9264</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-1.6241</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-2.2109</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1.0385</v>
-      </c>
-      <c r="M70" t="n">
-        <v>-3.4228</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-0.5721000000000001</v>
-      </c>
-      <c r="O70" t="n">
-        <v>2.2161</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0.0644</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0.4603</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0.2582</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0.3001</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0.3282</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>roic</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.1224</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.1156</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.0704</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-0.5747</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1.9726</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1.1326</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.2897</v>
-      </c>
-      <c r="J71" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-0.0806</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.0454</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.0742</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.1127</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.7447</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0.2694</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0.2463</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0.1665</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0.1683</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>roce</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.8603</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.0958</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.0609</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.0309</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-0.1385</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-0.0956</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.1366</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.0346</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.0435</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.07679999999999999</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.0665</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.1048</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0.07489999999999999</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.2066</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.1882</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0.1313</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0.1473</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>rotce</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9696</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.1106</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.06419999999999999</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.0309</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-0.1385</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-0.0956</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.2078</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.0608</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.0713</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.1325</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.1181</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.1434</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.1742</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.1189</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0.3358</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.3107</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.2661</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0.2068</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0.2196</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>gross_margin</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.7251</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.5205</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.3913</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.4637</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.1833</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.1573</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.1584</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.1833</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.2826</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.2628</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.2285</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0.2009</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0.2208</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>ebitda_margin</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.7095</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.0229</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.0092</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.0311</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-0.1354</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-0.0441</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.2193</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.1084</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.1132</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.1315</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.1065</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.1143</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.1445</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.1162</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.2367</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.2251</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0.1708</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0.1956</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>operating_margin</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.7865</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.1154</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.0944</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.0548</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-0.2171</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-0.1214</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.1586</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.0526</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.0584</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.0839</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.0631</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.0716</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.1006</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0.0723</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.1916</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.1773</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0.1184</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0.1407</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>pretax_margin</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.1406</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.1343</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.1443</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.08309999999999999</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-0.262</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-0.2341</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-0.3974</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.0949</v>
-      </c>
-      <c r="J77" t="n">
-        <v>-0.3983</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-0.0563</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.0191</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.0218</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.0279</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.0668</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.0265</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.1758</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.1336</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0.1159</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0.1318</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>net_income_margin</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.08110000000000001</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.0876</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.0917</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.054</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.3411</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-0.2316</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-0.3538</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.08409999999999999</v>
-      </c>
-      <c r="J78" t="n">
-        <v>-0.393</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-0.044</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.0243</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.0275</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.0163</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.1111</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.1063</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.0779</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0.0885</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0.1014</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>fcf_margin</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.044</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-0.1794</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.0649</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-0.0192</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-0.1082</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-0.0422</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.0353</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.0223</v>
-      </c>
-      <c r="J79" t="n">
-        <v>-0.1354</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.0449</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.0138</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.0524</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.0668</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.1223</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.1026</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.0275</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0.0415</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0.0742</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>assets_to_equity</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>4.0428</v>
-      </c>
-      <c r="C80" t="n">
-        <v>6.2629</v>
-      </c>
-      <c r="D80" t="n">
-        <v>27.6819</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-39.3611</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-3.7613</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-2.0251</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-1.4435</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.206</v>
-      </c>
-      <c r="J80" t="n">
-        <v>51.5835</v>
-      </c>
-      <c r="K80" t="n">
-        <v>178.7306</v>
-      </c>
-      <c r="L80" t="n">
-        <v>48.1471</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-31.1597</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-20.9056</v>
-      </c>
-      <c r="O80" t="n">
-        <v>4.4878</v>
-      </c>
-      <c r="P80" t="n">
-        <v>6.1278</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>4.8971</v>
-      </c>
-      <c r="R80" t="n">
-        <v>4.1719</v>
-      </c>
-      <c r="S80" t="n">
-        <v>4.2833</v>
-      </c>
-      <c r="T80" t="n">
-        <v>4.4031</v>
-      </c>
-      <c r="U80" t="n">
-        <v>4.2018</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>equity_to_assets</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.2473</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.1596</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.0361</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.0254</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-0.2658</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-0.4937</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-0.6927</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.3119</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.0193</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.0207</v>
-      </c>
-      <c r="M81" t="n">
-        <v>-0.032</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-0.0478</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.2228</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0.1631</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.2042</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.2396</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.2334</v>
-      </c>
-      <c r="T81" t="n">
-        <v>0.2271</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0.2379</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>debt_to_equity</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>1.0013</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2.4866</v>
-      </c>
-      <c r="D82" t="n">
-        <v>11.393</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-17.5083</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-2.2437</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-0.6626</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-0.5894</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1.115</v>
-      </c>
-      <c r="J82" t="n">
-        <v>24.2597</v>
-      </c>
-      <c r="K82" t="n">
-        <v>70.19589999999999</v>
-      </c>
-      <c r="L82" t="n">
-        <v>17.0033</v>
-      </c>
-      <c r="M82" t="n">
-        <v>-9.8789</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.9638</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.9741</v>
-      </c>
-      <c r="P82" t="n">
-        <v>1.0962</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.7675999999999999</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.5967</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1.1377</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.0713</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>debt_to_assets</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.2476</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.4115</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.4448</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.3272</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.4083</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.3478</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.4702</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.3927</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.3531</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.2852</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0.1788</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.1567</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.1645</v>
-      </c>
-      <c r="T83" t="n">
-        <v>0.2583</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0.2549</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>revenue_growth</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.0195</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.0674</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.0318</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.06469999999999999</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.08169999999999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.0638</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.0925</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.1849</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.2364</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.1315</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.1058</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.0442</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0.06850000000000001</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="R84" t="n">
-        <v>-0.0308</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.0427</v>
-      </c>
-      <c r="T84" t="n">
-        <v>0.08019999999999999</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0.0578</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>gross_profit_growth</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.2606</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.2859</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.0318</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.06469999999999999</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.08169999999999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.0638</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-0.4313</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-0.1091</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.4653</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-0.5526</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.0506</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.1921</v>
-      </c>
-      <c r="P85" t="n">
-        <v>-0.073</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.7926</v>
-      </c>
-      <c r="R85" t="n">
-        <v>-0.0989</v>
-      </c>
-      <c r="S85" t="n">
-        <v>-0.0931</v>
-      </c>
-      <c r="T85" t="n">
-        <v>-0.0504</v>
-      </c>
-      <c r="U85" t="n">
-        <v>0.1628</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>ebitda_growth</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2.7301</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-1.0302</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4.4765</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-5.6382</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.6472</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2.8324</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2.1499</v>
-      </c>
-      <c r="J86" t="n">
-        <v>-0.4143</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.2909</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="M86" t="n">
-        <v>-0.1048</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.1208</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.3024</v>
-      </c>
-      <c r="P86" t="n">
-        <v>-0.1404</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>1.0534</v>
-      </c>
-      <c r="R86" t="n">
-        <v>-0.07829999999999999</v>
-      </c>
-      <c r="S86" t="n">
-        <v>-0.0781</v>
-      </c>
-      <c r="T86" t="n">
-        <v>-0.0726</v>
-      </c>
-      <c r="U86" t="n">
-        <v>0.2115</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>operating_income_growth</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>5.2598</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.1368</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.1828</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.4003</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-3.214</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.3951</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1.0289</v>
-      </c>
-      <c r="I87" t="n">
-        <v>51.3793</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-0.6066</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.3732</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.6252</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-0.1687</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.1849</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.4472</v>
-      </c>
-      <c r="P87" t="n">
-        <v>-0.2314</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R87" t="n">
-        <v>-0.1033</v>
-      </c>
-      <c r="S87" t="n">
-        <v>-0.1472</v>
-      </c>
-      <c r="T87" t="n">
-        <v>-0.1176</v>
-      </c>
-      <c r="U87" t="n">
-        <v>0.2572</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>pretax_income_growth</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.1462</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.8905</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-0.074</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-2.3574</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.0333</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-0.8056</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.261</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-5.9703</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.8250999999999999</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1.3845</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.2648</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.3328</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.4653</v>
-      </c>
-      <c r="P88" t="n">
-        <v>-0.5757</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>5.6763</v>
-      </c>
-      <c r="R88" t="n">
-        <v>-0.1123</v>
-      </c>
-      <c r="S88" t="n">
-        <v>-0.1342</v>
-      </c>
-      <c r="T88" t="n">
-        <v>-0.0634</v>
-      </c>
-      <c r="U88" t="n">
-        <v>0.2032</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>net_income_growth</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.09710000000000001</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-2.0066</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-0.046</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.3922</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-5.7244</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.2654</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-0.6246</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.2598</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-6.5347</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.8613</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.4793</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.4401</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.1814</v>
-      </c>
-      <c r="O89" t="n">
-        <v>9.4459</v>
-      </c>
-      <c r="P89" t="n">
-        <v>-0.9374</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>5.8679</v>
-      </c>
-      <c r="R89" t="n">
-        <v>-0.0731</v>
-      </c>
-      <c r="S89" t="n">
-        <v>-0.2359</v>
-      </c>
-      <c r="T89" t="n">
-        <v>0.2277</v>
-      </c>
-      <c r="U89" t="n">
-        <v>0.2114</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>eps_diluted_growth</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.1319</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-2.2257</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-0.045</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.3869</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-5.4171</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.4217</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-0.3296</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.0668</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-10.0426</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.9213</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1.4666</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.4428</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.1782</v>
-      </c>
-      <c r="O90" t="n">
-        <v>9.3277</v>
-      </c>
-      <c r="P90" t="n">
-        <v>-0.9365</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>6.2179</v>
-      </c>
-      <c r="R90" t="n">
-        <v>-0.0142</v>
-      </c>
-      <c r="S90" t="n">
-        <v>-0.2018</v>
-      </c>
-      <c r="T90" t="n">
-        <v>0.2799</v>
-      </c>
-      <c r="U90" t="n">
-        <v>0.2874</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>shares_diluted_growth</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.08840000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-0.1078</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.2715</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.2165</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.3712</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.0193</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="P91" t="n">
-        <v>-0.0151</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>-0.0485</v>
-      </c>
-      <c r="R91" t="n">
-        <v>-0.0609</v>
-      </c>
-      <c r="S91" t="n">
-        <v>-0.0423</v>
-      </c>
-      <c r="T91" t="n">
-        <v>-0.0401</v>
-      </c>
-      <c r="U91" t="n">
-        <v>-0.059</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ppe_growth</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.1466</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.2026</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>-0.098</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.7628</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-0.0094</v>
-      </c>
-      <c r="L92" t="n">
-        <v>-0.0061</v>
-      </c>
-      <c r="M92" t="n">
-        <v>-0.0041</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.0242</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.0506</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.0579</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.0897</v>
-      </c>
-      <c r="T92" t="n">
-        <v>0.2923</v>
-      </c>
-      <c r="U92" t="n">
-        <v>0.0759</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>total_assets_growth</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.2278</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.1477</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.0472</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.0493</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-0.1595</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-0.0808</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-0.0208</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.6523</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.3904</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-0.0287</v>
-      </c>
-      <c r="L93" t="n">
-        <v>-0.0137</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.1728</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.0335</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>-0.0161</v>
-      </c>
-      <c r="R93" t="n">
-        <v>-0.0352</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="T93" t="n">
-        <v>0.1228</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0.0707</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>total_equity_growth</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.1436</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-0.259</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-0.763</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.7379</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-7.7951</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-0.7072000000000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-0.3737</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1.7439</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-0.9135</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-0.7196</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.6612</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-2.5562</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-0.5265</v>
-      </c>
-      <c r="O94" t="n">
-        <v>6.4636</v>
-      </c>
-      <c r="P94" t="n">
-        <v>-0.243</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.2311</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.1324</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="T94" t="n">
-        <v>0.09229999999999999</v>
-      </c>
-      <c r="U94" t="n">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>cfo_growth</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.1903</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.9006999999999999</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.2076</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.5894</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-3.479</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.7266</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4.2345</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="J95" t="n">
-        <v>-2.256</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.8078</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1.0536</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-0.1263</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.819</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0.0983</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.6022999999999999</v>
-      </c>
-      <c r="R95" t="n">
-        <v>-0.0898</v>
-      </c>
-      <c r="S95" t="n">
-        <v>-0.3038</v>
-      </c>
-      <c r="T95" t="n">
-        <v>0.3963</v>
-      </c>
-      <c r="U95" t="n">
-        <v>0.2011</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>capex_growth</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>-0.0759</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.1008</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.3853</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.2784</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.2604</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.0411</v>
-      </c>
-      <c r="I96" t="n">
-        <v>-1.4959</v>
-      </c>
-      <c r="J96" t="n">
-        <v>-0.4693</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.1944</v>
-      </c>
-      <c r="L96" t="n">
-        <v>-0.1851</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.0398</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-0.5693</v>
-      </c>
-      <c r="O96" t="n">
-        <v>-0.2809</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0.1078</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>-0.3094</v>
-      </c>
-      <c r="R96" t="n">
-        <v>-0.0747</v>
-      </c>
-      <c r="S96" t="n">
-        <v>-0.2293</v>
-      </c>
-      <c r="T96" t="n">
-        <v>-0.3281</v>
-      </c>
-      <c r="U96" t="n">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>fcf_growth</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>-6.5508</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-2.803</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.6382</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.6936</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-4.9746</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.5779</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1.8908</v>
-      </c>
-      <c r="I97" t="n">
-        <v>-0.3096</v>
-      </c>
-      <c r="J97" t="n">
-        <v>-8.1845</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.509</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.0353</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-0.6784</v>
-      </c>
-      <c r="O97" t="n">
-        <v>2.9035</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.3605</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.8465</v>
-      </c>
-      <c r="R97" t="n">
-        <v>-0.187</v>
-      </c>
-      <c r="S97" t="n">
-        <v>-0.7204</v>
-      </c>
-      <c r="T97" t="n">
-        <v>0.6307</v>
-      </c>
-      <c r="U97" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>fcf</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>-655000000</v>
-      </c>
-      <c r="C98" t="n">
-        <v>-2491000000</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-901000000</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-276000000</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-1649000000</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-696000000</v>
-      </c>
-      <c r="H98" t="n">
-        <v>620000000</v>
-      </c>
-      <c r="I98" t="n">
-        <v>428000000</v>
-      </c>
-      <c r="J98" t="n">
-        <v>-3075000000</v>
-      </c>
-      <c r="K98" t="n">
-        <v>277000000</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1526000000</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1580000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>508000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1983000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>2698000000</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>4982000000</v>
-      </c>
-      <c r="R98" t="n">
-        <v>4050000000</v>
-      </c>
-      <c r="S98" t="n">
-        <v>1132000000</v>
-      </c>
-      <c r="T98" t="n">
-        <v>1846000000</v>
-      </c>
-      <c r="U98" t="n">
-        <v>3489000000</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>book_value</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>5087000000</v>
-      </c>
-      <c r="C99" t="n">
-        <v>3317000000</v>
-      </c>
-      <c r="D99" t="n">
-        <v>893000000</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-659000000</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-5796000000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-9895000000</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-13593000000</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10113000000</v>
-      </c>
-      <c r="J99" t="n">
-        <v>874000000</v>
-      </c>
-      <c r="K99" t="n">
-        <v>245000000</v>
-      </c>
-      <c r="L99" t="n">
-        <v>897000000</v>
-      </c>
-      <c r="M99" t="n">
-        <v>-1396000000</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2131000000</v>
-      </c>
-      <c r="O99" t="n">
-        <v>11643000000</v>
-      </c>
-      <c r="P99" t="n">
-        <v>8813000000</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>10850000000</v>
-      </c>
-      <c r="R99" t="n">
-        <v>12287000000</v>
-      </c>
-      <c r="S99" t="n">
-        <v>12530000000</v>
-      </c>
-      <c r="T99" t="n">
-        <v>13687000000</v>
-      </c>
-      <c r="U99" t="n">
-        <v>15358000000</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>tangible_book_value</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>2800000000</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1131000000</v>
-      </c>
-      <c r="D100" t="n">
-        <v>893000000</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-659000000</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-5796000000</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-9895000000</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-13909000000</v>
-      </c>
-      <c r="I100" t="n">
-        <v>-4797000000</v>
-      </c>
-      <c r="J100" t="n">
-        <v>-13801000000</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-14371000000</v>
-      </c>
-      <c r="L100" t="n">
-        <v>-13646000000</v>
-      </c>
-      <c r="M100" t="n">
-        <v>-15941000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-16604000000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>-2809000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>-5584000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>-3805000000</v>
-      </c>
-      <c r="R100" t="n">
-        <v>-2351000000</v>
-      </c>
-      <c r="S100" t="n">
-        <v>-2111000000</v>
-      </c>
-      <c r="T100" t="n">
-        <v>-924000000</v>
-      </c>
-      <c r="U100" t="n">
-        <v>414000000</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>revenue_per_share</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>107.8478</v>
-      </c>
-      <c r="C101" t="n">
-        <v>112.7246</v>
-      </c>
-      <c r="D101" t="n">
-        <v>112.4793</v>
-      </c>
-      <c r="E101" t="n">
-        <v>115.9124</v>
-      </c>
-      <c r="F101" t="n">
-        <v>119.9351</v>
-      </c>
-      <c r="G101" t="n">
-        <v>102.0332</v>
-      </c>
-      <c r="H101" t="n">
-        <v>89.2281</v>
-      </c>
-      <c r="I101" t="n">
-        <v>56.1207</v>
-      </c>
-      <c r="J101" t="n">
-        <v>48.4978</v>
-      </c>
-      <c r="K101" t="n">
-        <v>33.9334</v>
-      </c>
-      <c r="L101" t="n">
-        <v>37.669</v>
-      </c>
-      <c r="M101" t="n">
-        <v>41.6054</v>
-      </c>
-      <c r="N101" t="n">
-        <v>43.1411</v>
-      </c>
-      <c r="O101" t="n">
-        <v>44.0244</v>
-      </c>
-      <c r="P101" t="n">
-        <v>47.7656</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>50.6268</v>
-      </c>
-      <c r="R101" t="n">
-        <v>52.2516</v>
-      </c>
-      <c r="S101" t="n">
-        <v>56.899</v>
-      </c>
-      <c r="T101" t="n">
-        <v>64.0317</v>
-      </c>
-      <c r="U101" t="n">
-        <v>71.9862</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>ebitda_per_share</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>76.5217</v>
-      </c>
-      <c r="C102" t="n">
-        <v>-2.5909</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-1.0383</v>
-      </c>
-      <c r="E102" t="n">
-        <v>3.605</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-16.2485</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-4.5072</v>
-      </c>
-      <c r="H102" t="n">
-        <v>6.7893</v>
-      </c>
-      <c r="I102" t="n">
-        <v>12.3117</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5.2585</v>
-      </c>
-      <c r="K102" t="n">
-        <v>3.8415</v>
-      </c>
-      <c r="L102" t="n">
-        <v>4.9561</v>
-      </c>
-      <c r="M102" t="n">
-        <v>4.4312</v>
-      </c>
-      <c r="N102" t="n">
-        <v>4.9317</v>
-      </c>
-      <c r="O102" t="n">
-        <v>6.3636</v>
-      </c>
-      <c r="P102" t="n">
-        <v>5.5538</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>11.9863</v>
-      </c>
-      <c r="R102" t="n">
-        <v>11.7642</v>
-      </c>
-      <c r="S102" t="n">
-        <v>11.325</v>
-      </c>
-      <c r="T102" t="n">
-        <v>10.9409</v>
-      </c>
-      <c r="U102" t="n">
-        <v>14.0872</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>operating_income_per_share</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>84.82599999999999</v>
-      </c>
-      <c r="C103" t="n">
-        <v>-13.0113</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-10.6184</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-6.3594</v>
-      </c>
-      <c r="F103" t="n">
-        <v>-26.0417</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-12.3888</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.2951</v>
-      </c>
-      <c r="I103" t="n">
-        <v>8.901199999999999</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2.5534</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1.9842</v>
-      </c>
-      <c r="L103" t="n">
-        <v>3.1637</v>
-      </c>
-      <c r="M103" t="n">
-        <v>2.6267</v>
-      </c>
-      <c r="N103" t="n">
-        <v>3.0905</v>
-      </c>
-      <c r="O103" t="n">
-        <v>4.4312</v>
-      </c>
-      <c r="P103" t="n">
-        <v>3.4579</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>9.703900000000001</v>
-      </c>
-      <c r="R103" t="n">
-        <v>9.2662</v>
-      </c>
-      <c r="S103" t="n">
-        <v>8.2517</v>
-      </c>
-      <c r="T103" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="U103" t="n">
-        <v>10.1347</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>fcf_per_share</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>-4.7463</v>
-      </c>
-      <c r="C104" t="n">
-        <v>-20.2318</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-7.3088</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-2.2359</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-12.9814</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-4.3091</v>
-      </c>
-      <c r="H104" t="n">
-        <v>3.1554</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1.254</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-6.5705</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.3349</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1.8102</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="O104" t="n">
-        <v>2.3111</v>
-      </c>
-      <c r="P104" t="n">
-        <v>3.1928</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>6.1965</v>
-      </c>
-      <c r="R104" t="n">
-        <v>5.3642</v>
-      </c>
-      <c r="S104" t="n">
-        <v>1.5656</v>
-      </c>
-      <c r="T104" t="n">
-        <v>2.6599</v>
-      </c>
-      <c r="U104" t="n">
-        <v>5.343</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>book_value_per_share</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>36.8623</v>
-      </c>
-      <c r="C105" t="n">
-        <v>26.9405</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.2439</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-5.3387</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-45.628</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-61.2632</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-69.1808</v>
-      </c>
-      <c r="I105" t="n">
-        <v>29.6308</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.8675</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.2962</v>
-      </c>
-      <c r="L105" t="n">
-        <v>1.064</v>
-      </c>
-      <c r="M105" t="n">
-        <v>-1.654</v>
-      </c>
-      <c r="N105" t="n">
-        <v>-2.507</v>
-      </c>
-      <c r="O105" t="n">
-        <v>13.5699</v>
-      </c>
-      <c r="P105" t="n">
-        <v>10.4295</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>13.495</v>
-      </c>
-      <c r="R105" t="n">
-        <v>16.2741</v>
-      </c>
-      <c r="S105" t="n">
-        <v>17.3305</v>
-      </c>
-      <c r="T105" t="n">
-        <v>19.7219</v>
-      </c>
-      <c r="U105" t="n">
-        <v>23.5191</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>tangible_book_per_share</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>20.2898</v>
-      </c>
-      <c r="C106" t="n">
-        <v>9.1859</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7.2439</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-5.3387</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-45.628</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-61.2632</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-70.7891</v>
-      </c>
-      <c r="I106" t="n">
-        <v>-14.055</v>
-      </c>
-      <c r="J106" t="n">
-        <v>-29.4893</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-17.3772</v>
-      </c>
-      <c r="L106" t="n">
-        <v>-16.1874</v>
-      </c>
-      <c r="M106" t="n">
-        <v>-18.8874</v>
-      </c>
-      <c r="N106" t="n">
-        <v>-19.5341</v>
-      </c>
-      <c r="O106" t="n">
-        <v>-3.2738</v>
-      </c>
-      <c r="P106" t="n">
-        <v>-6.6082</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>-4.7325</v>
-      </c>
-      <c r="R106" t="n">
-        <v>-3.1139</v>
-      </c>
-      <c r="S106" t="n">
-        <v>-2.9197</v>
-      </c>
-      <c r="T106" t="n">
-        <v>-1.3314</v>
-      </c>
-      <c r="U106" t="n">
-        <v>0.6339</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>market_cap</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>4351245140</v>
-      </c>
-      <c r="J107" t="n">
-        <v>8000650020</v>
-      </c>
-      <c r="K107" t="n">
-        <v>8921407900</v>
-      </c>
-      <c r="L107" t="n">
-        <v>10517522400</v>
-      </c>
-      <c r="M107" t="n">
-        <v>6838040140</v>
-      </c>
-      <c r="N107" t="n">
-        <v>10106141740</v>
-      </c>
-      <c r="O107" t="n">
-        <v>23389139210</v>
-      </c>
-      <c r="P107" t="n">
-        <v>40594441020</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>39476560960</v>
-      </c>
-      <c r="R107" t="n">
-        <v>35945002220</v>
-      </c>
-      <c r="S107" t="n">
-        <v>39603088000</v>
-      </c>
-      <c r="T107" t="n">
-        <v>33929205600</v>
-      </c>
-      <c r="U107" t="n">
-        <v>37589306560</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>price_to_earnings</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.6992</v>
-      </c>
-      <c r="J108" t="n">
-        <v>-0.8967000000000001</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-7.2121</v>
-      </c>
-      <c r="L108" t="n">
-        <v>17.7361</v>
-      </c>
-      <c r="M108" t="n">
-        <v>8.007</v>
-      </c>
-      <c r="N108" t="n">
-        <v>10.0159</v>
-      </c>
-      <c r="O108" t="n">
-        <v>2.219</v>
-      </c>
-      <c r="P108" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>8.722099999999999</v>
-      </c>
-      <c r="R108" t="n">
-        <v>8.5685</v>
-      </c>
-      <c r="S108" t="n">
-        <v>12.3566</v>
-      </c>
-      <c r="T108" t="n">
-        <v>8.622400000000001</v>
-      </c>
-      <c r="U108" t="n">
         <v>7.8853</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>price_to_book</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.4302</v>
-      </c>
-      <c r="J109" t="n">
-        <v>9.154</v>
-      </c>
-      <c r="K109" t="n">
-        <v>36.4139</v>
-      </c>
-      <c r="L109" t="n">
-        <v>11.7252</v>
-      </c>
-      <c r="M109" t="n">
-        <v>-4.8983</v>
-      </c>
-      <c r="N109" t="n">
-        <v>-4.7424</v>
-      </c>
-      <c r="O109" t="n">
-        <v>2.0088</v>
-      </c>
-      <c r="P109" t="n">
-        <v>4.6062</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>3.6383</v>
-      </c>
-      <c r="R109" t="n">
-        <v>2.9254</v>
-      </c>
-      <c r="S109" t="n">
-        <v>3.1606</v>
-      </c>
-      <c r="T109" t="n">
-        <v>2.4789</v>
-      </c>
-      <c r="U109" t="n">
-        <v>2.4475</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>price_to_sales</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.2271</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.3524</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.3179</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.1947</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.2755</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.6192</v>
-      </c>
-      <c r="P110" t="n">
-        <v>1.0057</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.9698</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0.9111</v>
-      </c>
-      <c r="S110" t="n">
-        <v>0.9626</v>
-      </c>
-      <c r="T110" t="n">
-        <v>0.7635</v>
-      </c>
-      <c r="U110" t="n">
-        <v>0.7996</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>dividends</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="S111" t="n">
-        <v>1.015</v>
-      </c>
-      <c r="T111" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U111" t="n">
-        <v>1.505</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>payout_ratio</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0.3846</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.0799</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0.1216</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0.2291</v>
-      </c>
-      <c r="T112" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="U112" t="n">
-        <v>0.2061</v>
       </c>
     </row>
   </sheetData>
@@ -14500,7 +8559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14509,12 +8568,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Rule #1 Metric</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -14526,8 +8585,10 @@
           <t>ROIC - 10-year</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.1321588046312202</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13.22%</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -14536,8 +8597,10 @@
           <t>ROIC - 5-year</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.203764364540978</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20.38%</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -14546,8 +8609,10 @@
           <t>ROIC - 3-year</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.1753673920427165</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17.54%</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -14556,8 +8621,10 @@
           <t>ROIC - 1-year</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.1919462255705763</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>19.19%</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -14566,8 +8633,10 @@
           <t>ROIC QuickFS - 10-year</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.20395</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20.40%</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -14576,8 +8645,10 @@
           <t>ROIC QuickFS - 5-year</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.2053</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20.53%</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -14586,8 +8657,10 @@
           <t>ROIC QuickFS - 3-year</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.1702666666666667</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17.03%</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -14596,8 +8669,10 @@
           <t>ROIC QuickFS - 1-year</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.1683</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16.83%</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -14606,8 +8681,10 @@
           <t>Equity Growth Rate - 10-year</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.5487580062107884</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>54.88%</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -14616,8 +8693,10 @@
           <t>Equity Growth Rate - 5-year</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.1766070385660381</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17.66%</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -14626,8 +8705,10 @@
           <t>Equity Growth Rate - 3-year</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.1305972014626822</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13.06%</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -14636,8 +8717,10 @@
           <t>Equity Growth Rate - 1-year</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.1925372301857327</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>19.25%</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -14646,8 +8729,10 @@
           <t>EPS Growth Rate - 10-year</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1.1935459441188</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>119.35%</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -14656,8 +8741,10 @@
           <t>EPS Growth Rate - 5-year</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.5640320613393088</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>56.40%</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -14666,8 +8753,10 @@
           <t>EPS Growth Rate - 3-year</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.09566206573609071</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9.57%</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -14676,8 +8765,10 @@
           <t>EPS Growth Rate - 1-year</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.2874779541446209</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28.75%</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -14686,8 +8777,10 @@
           <t>Sales Growth Rate - 10-year</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.05293810780117059</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5.29%</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -14696,8 +8789,10 @@
           <t>Sales Growth Rate - 5-year</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.03095087471008884</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3.10%</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -14706,8 +8801,10 @@
           <t>Sales Growth Rate - 3-year</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.06016104571064651</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6.02%</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -14716,8 +8813,10 @@
           <t>Sales Growth Rate - 1-year</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.05781088257797373</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5.78%</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -14726,8 +8825,10 @@
           <t>FCF Growth Rate - 10-year</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.2883151681271645</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>28.83%</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -14736,8 +8837,10 @@
           <t>FCF Growth Rate - 5-year</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.05276588909028135</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -14746,8 +8849,10 @@
           <t>FCF Growth Rate - 3-year</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>-0.04848570905283889</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-4.85%</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -14756,8 +8861,10 @@
           <t>FCF Growth Rate - 1-year</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.8900325027085589</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>89.00%</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -14766,8 +8873,10 @@
           <t>OCF Growth Rate - 10-year</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.1983965893128041</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>19.84%</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -14776,8 +8885,10 @@
           <t>OCF Growth Rate - 5-year</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.1123606055197806</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11.24%</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -14786,8 +8897,10 @@
           <t>OCF Growth Rate - 3-year</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0.05303916690793287</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5.30%</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -14796,8 +8909,10 @@
           <t>OCF Growth Rate - 1-year</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.2011690903906473</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20.12%</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -15045,7 +9160,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25866491904</v>
+        <v>24705816576</v>
       </c>
     </row>
     <row r="53">
@@ -15055,7 +9170,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8384503</v>
+        <v>12298675</v>
       </c>
     </row>
     <row r="54">
@@ -15065,7 +9180,17 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-115.88572</v>
+        <v>-110.68572</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>40.21</v>
       </c>
     </row>
   </sheetData>
